--- a/analysis/分红拆分记录.xlsx
+++ b/analysis/分红拆分记录.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U295"/>
+  <dimension ref="A1:U297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -12525,20 +12525,22 @@
     </row>
     <row r="201">
       <c r="A201" s="5" t="n">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="B201" s="6" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C201" s="6" t="inlineStr">
         <is>
-          <t>50ETF</t>
-        </is>
-      </c>
-      <c r="D201" s="7" t="n">
-        <v>38400</v>
+          <t>易方达证券公司分级</t>
+        </is>
+      </c>
+      <c r="D201" s="6" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
       </c>
       <c r="E201" s="6" t="n">
         <v>404002</v>
@@ -12553,13 +12555,17 @@
       <c r="I201" s="6" t="n"/>
       <c r="J201" s="6" t="n"/>
       <c r="K201" s="6" t="n">
-        <v>1.18384087</v>
-      </c>
-      <c r="L201" s="7" t="n">
-        <v>38387</v>
-      </c>
-      <c r="M201" s="7" t="n">
-        <v>38387</v>
+        <v>1.0167</v>
+      </c>
+      <c r="L201" s="6" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="M201" s="6" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
       </c>
       <c r="N201" s="6" t="n"/>
       <c r="O201" s="6" t="n"/>
@@ -12572,7 +12578,7 @@
     </row>
     <row r="202">
       <c r="A202" s="5" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="6" t="inlineStr">
         <is>
@@ -12585,42 +12591,32 @@
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>38850</v>
+        <v>38400</v>
       </c>
       <c r="E202" s="6" t="n">
-        <v>404001</v>
+        <v>404002</v>
       </c>
       <c r="F202" s="6" t="inlineStr">
         <is>
-          <t>基金分红</t>
+          <t>基金分拆</t>
         </is>
       </c>
       <c r="G202" s="6" t="n"/>
-      <c r="H202" s="6" t="n">
-        <v>405002</v>
-      </c>
-      <c r="I202" s="6" t="inlineStr">
-        <is>
-          <t>实施方案</t>
-        </is>
-      </c>
-      <c r="J202" s="6" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="K202" s="6" t="n"/>
+      <c r="H202" s="6" t="n"/>
+      <c r="I202" s="6" t="n"/>
+      <c r="J202" s="6" t="n"/>
+      <c r="K202" s="6" t="n">
+        <v>1.18384087</v>
+      </c>
       <c r="L202" s="7" t="n">
-        <v>38855</v>
+        <v>38387</v>
       </c>
       <c r="M202" s="7" t="n">
-        <v>38856</v>
-      </c>
-      <c r="N202" s="7" t="n">
-        <v>38861</v>
-      </c>
+        <v>38387</v>
+      </c>
+      <c r="N202" s="6" t="n"/>
       <c r="O202" s="6" t="n"/>
-      <c r="P202" s="7" t="n">
-        <v>38850</v>
-      </c>
+      <c r="P202" s="6" t="n"/>
       <c r="Q202" s="6" t="n"/>
       <c r="R202" s="6" t="n"/>
       <c r="S202" s="6" t="n"/>
@@ -12629,7 +12625,7 @@
     </row>
     <row r="203">
       <c r="A203" s="5" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" s="6" t="inlineStr">
         <is>
@@ -12642,7 +12638,7 @@
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>39032</v>
+        <v>38850</v>
       </c>
       <c r="E203" s="6" t="n">
         <v>404001</v>
@@ -12652,9 +12648,7 @@
           <t>基金分红</t>
         </is>
       </c>
-      <c r="G203" s="7" t="n">
-        <v>39021</v>
-      </c>
+      <c r="G203" s="6" t="n"/>
       <c r="H203" s="6" t="n">
         <v>405002</v>
       </c>
@@ -12664,21 +12658,21 @@
         </is>
       </c>
       <c r="J203" s="6" t="n">
-        <v>0.037</v>
+        <v>0.024</v>
       </c>
       <c r="K203" s="6" t="n"/>
       <c r="L203" s="7" t="n">
-        <v>39036</v>
+        <v>38855</v>
       </c>
       <c r="M203" s="7" t="n">
-        <v>39037</v>
+        <v>38856</v>
       </c>
       <c r="N203" s="7" t="n">
-        <v>39042</v>
+        <v>38861</v>
       </c>
       <c r="O203" s="6" t="n"/>
       <c r="P203" s="7" t="n">
-        <v>39032</v>
+        <v>38850</v>
       </c>
       <c r="Q203" s="6" t="n"/>
       <c r="R203" s="6" t="n"/>
@@ -12688,7 +12682,7 @@
     </row>
     <row r="204">
       <c r="A204" s="5" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
@@ -12701,7 +12695,7 @@
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>39766</v>
+        <v>39032</v>
       </c>
       <c r="E204" s="6" t="n">
         <v>404001</v>
@@ -12712,7 +12706,7 @@
         </is>
       </c>
       <c r="G204" s="7" t="n">
-        <v>39752</v>
+        <v>39021</v>
       </c>
       <c r="H204" s="6" t="n">
         <v>405002</v>
@@ -12723,21 +12717,21 @@
         </is>
       </c>
       <c r="J204" s="6" t="n">
-        <v>0.06</v>
+        <v>0.037</v>
       </c>
       <c r="K204" s="6" t="n"/>
       <c r="L204" s="7" t="n">
-        <v>39770</v>
+        <v>39036</v>
       </c>
       <c r="M204" s="7" t="n">
-        <v>39771</v>
+        <v>39037</v>
       </c>
       <c r="N204" s="7" t="n">
-        <v>39776</v>
+        <v>39042</v>
       </c>
       <c r="O204" s="6" t="n"/>
       <c r="P204" s="7" t="n">
-        <v>39766</v>
+        <v>39032</v>
       </c>
       <c r="Q204" s="6" t="n"/>
       <c r="R204" s="6" t="n"/>
@@ -12747,7 +12741,7 @@
     </row>
     <row r="205">
       <c r="A205" s="5" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
@@ -12760,7 +12754,7 @@
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>40492</v>
+        <v>39766</v>
       </c>
       <c r="E205" s="6" t="n">
         <v>404001</v>
@@ -12771,7 +12765,7 @@
         </is>
       </c>
       <c r="G205" s="7" t="n">
-        <v>40482</v>
+        <v>39752</v>
       </c>
       <c r="H205" s="6" t="n">
         <v>405002</v>
@@ -12782,21 +12776,21 @@
         </is>
       </c>
       <c r="J205" s="6" t="n">
-        <v>0.026</v>
+        <v>0.06</v>
       </c>
       <c r="K205" s="6" t="n"/>
       <c r="L205" s="7" t="n">
-        <v>40497</v>
+        <v>39770</v>
       </c>
       <c r="M205" s="7" t="n">
-        <v>40498</v>
+        <v>39771</v>
       </c>
       <c r="N205" s="7" t="n">
-        <v>40501</v>
+        <v>39776</v>
       </c>
       <c r="O205" s="6" t="n"/>
       <c r="P205" s="7" t="n">
-        <v>40492</v>
+        <v>39766</v>
       </c>
       <c r="Q205" s="6" t="n"/>
       <c r="R205" s="6" t="n"/>
@@ -12806,7 +12800,7 @@
     </row>
     <row r="206">
       <c r="A206" s="5" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
@@ -12819,7 +12813,7 @@
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>41039</v>
+        <v>40492</v>
       </c>
       <c r="E206" s="6" t="n">
         <v>404001</v>
@@ -12830,7 +12824,7 @@
         </is>
       </c>
       <c r="G206" s="7" t="n">
-        <v>41029</v>
+        <v>40482</v>
       </c>
       <c r="H206" s="6" t="n">
         <v>405002</v>
@@ -12841,21 +12835,21 @@
         </is>
       </c>
       <c r="J206" s="6" t="n">
-        <v>0.011</v>
+        <v>0.026</v>
       </c>
       <c r="K206" s="6" t="n"/>
       <c r="L206" s="7" t="n">
-        <v>41044</v>
+        <v>40497</v>
       </c>
       <c r="M206" s="7" t="n">
-        <v>41045</v>
+        <v>40498</v>
       </c>
       <c r="N206" s="7" t="n">
-        <v>41050</v>
+        <v>40501</v>
       </c>
       <c r="O206" s="6" t="n"/>
       <c r="P206" s="7" t="n">
-        <v>41039</v>
+        <v>40492</v>
       </c>
       <c r="Q206" s="6" t="n"/>
       <c r="R206" s="6" t="n"/>
@@ -12865,7 +12859,7 @@
     </row>
     <row r="207">
       <c r="A207" s="5" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
@@ -12878,7 +12872,7 @@
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>41220</v>
+        <v>41039</v>
       </c>
       <c r="E207" s="6" t="n">
         <v>404001</v>
@@ -12889,7 +12883,7 @@
         </is>
       </c>
       <c r="G207" s="7" t="n">
-        <v>41213</v>
+        <v>41029</v>
       </c>
       <c r="H207" s="6" t="n">
         <v>405002</v>
@@ -12900,21 +12894,21 @@
         </is>
       </c>
       <c r="J207" s="6" t="n">
-        <v>0.037</v>
+        <v>0.011</v>
       </c>
       <c r="K207" s="6" t="n"/>
       <c r="L207" s="7" t="n">
-        <v>41225</v>
+        <v>41044</v>
       </c>
       <c r="M207" s="7" t="n">
-        <v>41226</v>
+        <v>41045</v>
       </c>
       <c r="N207" s="7" t="n">
-        <v>41229</v>
+        <v>41050</v>
       </c>
       <c r="O207" s="6" t="n"/>
       <c r="P207" s="7" t="n">
-        <v>41220</v>
+        <v>41039</v>
       </c>
       <c r="Q207" s="6" t="n"/>
       <c r="R207" s="6" t="n"/>
@@ -12924,7 +12918,7 @@
     </row>
     <row r="208">
       <c r="A208" s="5" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
@@ -12937,7 +12931,7 @@
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>41589</v>
+        <v>41220</v>
       </c>
       <c r="E208" s="6" t="n">
         <v>404001</v>
@@ -12948,7 +12942,7 @@
         </is>
       </c>
       <c r="G208" s="7" t="n">
-        <v>41578</v>
+        <v>41213</v>
       </c>
       <c r="H208" s="6" t="n">
         <v>405002</v>
@@ -12959,21 +12953,21 @@
         </is>
       </c>
       <c r="J208" s="6" t="n">
-        <v>0.053</v>
+        <v>0.037</v>
       </c>
       <c r="K208" s="6" t="n"/>
       <c r="L208" s="7" t="n">
-        <v>41592</v>
+        <v>41225</v>
       </c>
       <c r="M208" s="7" t="n">
-        <v>41593</v>
+        <v>41226</v>
       </c>
       <c r="N208" s="7" t="n">
-        <v>41598</v>
+        <v>41229</v>
       </c>
       <c r="O208" s="6" t="n"/>
       <c r="P208" s="7" t="n">
-        <v>41589</v>
+        <v>41220</v>
       </c>
       <c r="Q208" s="6" t="n"/>
       <c r="R208" s="6" t="n"/>
@@ -12983,7 +12977,7 @@
     </row>
     <row r="209">
       <c r="A209" s="5" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
@@ -12996,7 +12990,7 @@
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>41954</v>
+        <v>41589</v>
       </c>
       <c r="E209" s="6" t="n">
         <v>404001</v>
@@ -13007,7 +13001,7 @@
         </is>
       </c>
       <c r="G209" s="7" t="n">
-        <v>41943</v>
+        <v>41578</v>
       </c>
       <c r="H209" s="6" t="n">
         <v>405002</v>
@@ -13018,21 +13012,21 @@
         </is>
       </c>
       <c r="J209" s="6" t="n">
-        <v>0.043</v>
+        <v>0.053</v>
       </c>
       <c r="K209" s="6" t="n"/>
       <c r="L209" s="7" t="n">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="M209" s="7" t="n">
-        <v>41960</v>
+        <v>41593</v>
       </c>
       <c r="N209" s="7" t="n">
-        <v>41963</v>
+        <v>41598</v>
       </c>
       <c r="O209" s="6" t="n"/>
       <c r="P209" s="7" t="n">
-        <v>41954</v>
+        <v>41589</v>
       </c>
       <c r="Q209" s="6" t="n"/>
       <c r="R209" s="6" t="n"/>
@@ -13042,7 +13036,7 @@
     </row>
     <row r="210">
       <c r="A210" s="5" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210" s="6" t="inlineStr">
         <is>
@@ -13055,7 +13049,7 @@
         </is>
       </c>
       <c r="D210" s="7" t="n">
-        <v>42685</v>
+        <v>41954</v>
       </c>
       <c r="E210" s="6" t="n">
         <v>404001</v>
@@ -13066,7 +13060,7 @@
         </is>
       </c>
       <c r="G210" s="7" t="n">
-        <v>42674</v>
+        <v>41943</v>
       </c>
       <c r="H210" s="6" t="n">
         <v>405002</v>
@@ -13077,21 +13071,21 @@
         </is>
       </c>
       <c r="J210" s="6" t="n">
-        <v>0.053</v>
+        <v>0.043</v>
       </c>
       <c r="K210" s="6" t="n"/>
       <c r="L210" s="7" t="n">
-        <v>42702</v>
+        <v>41957</v>
       </c>
       <c r="M210" s="7" t="n">
-        <v>42703</v>
+        <v>41960</v>
       </c>
       <c r="N210" s="7" t="n">
-        <v>42706</v>
+        <v>41963</v>
       </c>
       <c r="O210" s="6" t="n"/>
       <c r="P210" s="7" t="n">
-        <v>42685</v>
+        <v>41954</v>
       </c>
       <c r="Q210" s="6" t="n"/>
       <c r="R210" s="6" t="n"/>
@@ -13101,7 +13095,7 @@
     </row>
     <row r="211">
       <c r="A211" s="5" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
@@ -13114,7 +13108,7 @@
         </is>
       </c>
       <c r="D211" s="7" t="n">
-        <v>43049</v>
+        <v>42685</v>
       </c>
       <c r="E211" s="6" t="n">
         <v>404001</v>
@@ -13125,7 +13119,7 @@
         </is>
       </c>
       <c r="G211" s="7" t="n">
-        <v>43039</v>
+        <v>42674</v>
       </c>
       <c r="H211" s="6" t="n">
         <v>405002</v>
@@ -13136,21 +13130,21 @@
         </is>
       </c>
       <c r="J211" s="6" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="K211" s="6" t="n"/>
       <c r="L211" s="7" t="n">
-        <v>43066</v>
+        <v>42702</v>
       </c>
       <c r="M211" s="7" t="n">
-        <v>43067</v>
+        <v>42703</v>
       </c>
       <c r="N211" s="7" t="n">
-        <v>43070</v>
+        <v>42706</v>
       </c>
       <c r="O211" s="6" t="n"/>
       <c r="P211" s="7" t="n">
-        <v>43049</v>
+        <v>42685</v>
       </c>
       <c r="Q211" s="6" t="n"/>
       <c r="R211" s="6" t="n"/>
@@ -13160,7 +13154,7 @@
     </row>
     <row r="212">
       <c r="A212" s="5" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212" s="6" t="inlineStr">
         <is>
@@ -13173,7 +13167,7 @@
         </is>
       </c>
       <c r="D212" s="7" t="n">
-        <v>43416</v>
+        <v>43049</v>
       </c>
       <c r="E212" s="6" t="n">
         <v>404001</v>
@@ -13184,7 +13178,7 @@
         </is>
       </c>
       <c r="G212" s="7" t="n">
-        <v>43404</v>
+        <v>43039</v>
       </c>
       <c r="H212" s="6" t="n">
         <v>405002</v>
@@ -13195,21 +13189,21 @@
         </is>
       </c>
       <c r="J212" s="6" t="n">
-        <v>0.049</v>
+        <v>0.054</v>
       </c>
       <c r="K212" s="6" t="n"/>
       <c r="L212" s="7" t="n">
-        <v>43434</v>
+        <v>43066</v>
       </c>
       <c r="M212" s="7" t="n">
-        <v>43437</v>
+        <v>43067</v>
       </c>
       <c r="N212" s="7" t="n">
-        <v>43440</v>
+        <v>43070</v>
       </c>
       <c r="O212" s="6" t="n"/>
       <c r="P212" s="7" t="n">
-        <v>43416</v>
+        <v>43049</v>
       </c>
       <c r="Q212" s="6" t="n"/>
       <c r="R212" s="6" t="n"/>
@@ -13219,7 +13213,7 @@
     </row>
     <row r="213">
       <c r="A213" s="5" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
@@ -13232,7 +13226,7 @@
         </is>
       </c>
       <c r="D213" s="7" t="n">
-        <v>43784</v>
+        <v>43416</v>
       </c>
       <c r="E213" s="6" t="n">
         <v>404001</v>
@@ -13243,7 +13237,7 @@
         </is>
       </c>
       <c r="G213" s="7" t="n">
-        <v>43769</v>
+        <v>43404</v>
       </c>
       <c r="H213" s="6" t="n">
         <v>405002</v>
@@ -13254,21 +13248,21 @@
         </is>
       </c>
       <c r="J213" s="6" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="K213" s="6" t="n"/>
       <c r="L213" s="7" t="n">
-        <v>43798</v>
+        <v>43434</v>
       </c>
       <c r="M213" s="7" t="n">
-        <v>43801</v>
+        <v>43437</v>
       </c>
       <c r="N213" s="7" t="n">
-        <v>43804</v>
+        <v>43440</v>
       </c>
       <c r="O213" s="6" t="n"/>
       <c r="P213" s="7" t="n">
-        <v>43784</v>
+        <v>43416</v>
       </c>
       <c r="Q213" s="6" t="n"/>
       <c r="R213" s="6" t="n"/>
@@ -13278,45 +13272,57 @@
     </row>
     <row r="214">
       <c r="A214" s="5" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B214" s="6" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="C214" s="6" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="D214" s="7" t="n">
-        <v>41044</v>
+        <v>43784</v>
       </c>
       <c r="E214" s="6" t="n">
-        <v>404003</v>
+        <v>404001</v>
       </c>
       <c r="F214" s="6" t="inlineStr">
         <is>
-          <t>基金合并</t>
-        </is>
-      </c>
-      <c r="G214" s="6" t="n"/>
-      <c r="H214" s="6" t="n"/>
-      <c r="I214" s="6" t="n"/>
-      <c r="J214" s="6" t="n"/>
-      <c r="K214" s="6" t="n">
-        <v>0.37094933</v>
-      </c>
+          <t>基金分红</t>
+        </is>
+      </c>
+      <c r="G214" s="7" t="n">
+        <v>43769</v>
+      </c>
+      <c r="H214" s="6" t="n">
+        <v>405002</v>
+      </c>
+      <c r="I214" s="6" t="inlineStr">
+        <is>
+          <t>实施方案</t>
+        </is>
+      </c>
+      <c r="J214" s="6" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K214" s="6" t="n"/>
       <c r="L214" s="7" t="n">
-        <v>41040</v>
+        <v>43798</v>
       </c>
       <c r="M214" s="7" t="n">
-        <v>41040</v>
-      </c>
-      <c r="N214" s="6" t="n"/>
+        <v>43801</v>
+      </c>
+      <c r="N214" s="7" t="n">
+        <v>43804</v>
+      </c>
       <c r="O214" s="6" t="n"/>
-      <c r="P214" s="6" t="n"/>
+      <c r="P214" s="7" t="n">
+        <v>43784</v>
+      </c>
       <c r="Q214" s="6" t="n"/>
       <c r="R214" s="6" t="n"/>
       <c r="S214" s="6" t="n"/>
@@ -13325,7 +13331,7 @@
     </row>
     <row r="215">
       <c r="A215" s="5" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215" s="6" t="inlineStr">
         <is>
@@ -13338,44 +13344,32 @@
         </is>
       </c>
       <c r="D215" s="7" t="n">
-        <v>41255</v>
+        <v>41044</v>
       </c>
       <c r="E215" s="6" t="n">
-        <v>404001</v>
+        <v>404003</v>
       </c>
       <c r="F215" s="6" t="inlineStr">
         <is>
-          <t>基金分红</t>
-        </is>
-      </c>
-      <c r="G215" s="7" t="n">
-        <v>41246</v>
-      </c>
-      <c r="H215" s="6" t="n">
-        <v>405002</v>
-      </c>
-      <c r="I215" s="6" t="inlineStr">
-        <is>
-          <t>实施方案</t>
-        </is>
-      </c>
-      <c r="J215" s="6" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="K215" s="6" t="n"/>
+          <t>基金合并</t>
+        </is>
+      </c>
+      <c r="G215" s="6" t="n"/>
+      <c r="H215" s="6" t="n"/>
+      <c r="I215" s="6" t="n"/>
+      <c r="J215" s="6" t="n"/>
+      <c r="K215" s="6" t="n">
+        <v>0.37094933</v>
+      </c>
       <c r="L215" s="7" t="n">
-        <v>41260</v>
+        <v>41040</v>
       </c>
       <c r="M215" s="7" t="n">
-        <v>41261</v>
-      </c>
-      <c r="N215" s="7" t="n">
-        <v>41267</v>
-      </c>
+        <v>41040</v>
+      </c>
+      <c r="N215" s="6" t="n"/>
       <c r="O215" s="6" t="n"/>
-      <c r="P215" s="7" t="n">
-        <v>41255</v>
-      </c>
+      <c r="P215" s="6" t="n"/>
       <c r="Q215" s="6" t="n"/>
       <c r="R215" s="6" t="n"/>
       <c r="S215" s="6" t="n"/>
@@ -13384,7 +13378,7 @@
     </row>
     <row r="216">
       <c r="A216" s="5" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" s="6" t="inlineStr">
         <is>
@@ -13397,7 +13391,7 @@
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>41654</v>
+        <v>41255</v>
       </c>
       <c r="E216" s="6" t="n">
         <v>404001</v>
@@ -13408,7 +13402,7 @@
         </is>
       </c>
       <c r="G216" s="7" t="n">
-        <v>41639</v>
+        <v>41246</v>
       </c>
       <c r="H216" s="6" t="n">
         <v>405002</v>
@@ -13419,21 +13413,21 @@
         </is>
       </c>
       <c r="J216" s="6" t="n">
-        <v>0.048</v>
+        <v>0.033</v>
       </c>
       <c r="K216" s="6" t="n"/>
       <c r="L216" s="7" t="n">
-        <v>41659</v>
+        <v>41260</v>
       </c>
       <c r="M216" s="7" t="n">
-        <v>41660</v>
+        <v>41261</v>
       </c>
       <c r="N216" s="7" t="n">
-        <v>41666</v>
+        <v>41267</v>
       </c>
       <c r="O216" s="6" t="n"/>
       <c r="P216" s="7" t="n">
-        <v>41654</v>
+        <v>41255</v>
       </c>
       <c r="Q216" s="6" t="n"/>
       <c r="R216" s="6" t="n"/>
@@ -13443,7 +13437,7 @@
     </row>
     <row r="217">
       <c r="A217" s="5" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" s="6" t="inlineStr">
         <is>
@@ -13456,7 +13450,7 @@
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>42018</v>
+        <v>41654</v>
       </c>
       <c r="E217" s="6" t="n">
         <v>404001</v>
@@ -13467,7 +13461,7 @@
         </is>
       </c>
       <c r="G217" s="7" t="n">
-        <v>42004</v>
+        <v>41639</v>
       </c>
       <c r="H217" s="6" t="n">
         <v>405002</v>
@@ -13478,21 +13472,21 @@
         </is>
       </c>
       <c r="J217" s="6" t="n">
-        <v>0.035</v>
+        <v>0.048</v>
       </c>
       <c r="K217" s="6" t="n"/>
       <c r="L217" s="7" t="n">
-        <v>42023</v>
+        <v>41659</v>
       </c>
       <c r="M217" s="7" t="n">
-        <v>42024</v>
+        <v>41660</v>
       </c>
       <c r="N217" s="7" t="n">
-        <v>42027</v>
+        <v>41666</v>
       </c>
       <c r="O217" s="6" t="n"/>
       <c r="P217" s="7" t="n">
-        <v>42018</v>
+        <v>41654</v>
       </c>
       <c r="Q217" s="6" t="n"/>
       <c r="R217" s="6" t="n"/>
@@ -13502,7 +13496,7 @@
     </row>
     <row r="218">
       <c r="A218" s="5" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B218" s="6" t="inlineStr">
         <is>
@@ -13515,7 +13509,7 @@
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>42383</v>
+        <v>42018</v>
       </c>
       <c r="E218" s="6" t="n">
         <v>404001</v>
@@ -13526,7 +13520,7 @@
         </is>
       </c>
       <c r="G218" s="7" t="n">
-        <v>42369</v>
+        <v>42004</v>
       </c>
       <c r="H218" s="6" t="n">
         <v>405002</v>
@@ -13537,21 +13531,21 @@
         </is>
       </c>
       <c r="J218" s="6" t="n">
-        <v>0.051</v>
+        <v>0.035</v>
       </c>
       <c r="K218" s="6" t="n"/>
       <c r="L218" s="7" t="n">
-        <v>42388</v>
+        <v>42023</v>
       </c>
       <c r="M218" s="7" t="n">
-        <v>42389</v>
+        <v>42024</v>
       </c>
       <c r="N218" s="7" t="n">
-        <v>42394</v>
+        <v>42027</v>
       </c>
       <c r="O218" s="6" t="n"/>
       <c r="P218" s="7" t="n">
-        <v>42383</v>
+        <v>42018</v>
       </c>
       <c r="Q218" s="6" t="n"/>
       <c r="R218" s="6" t="n"/>
@@ -13561,7 +13555,7 @@
     </row>
     <row r="219">
       <c r="A219" s="5" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B219" s="6" t="inlineStr">
         <is>
@@ -13574,7 +13568,7 @@
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>42752</v>
+        <v>42383</v>
       </c>
       <c r="E219" s="6" t="n">
         <v>404001</v>
@@ -13585,7 +13579,7 @@
         </is>
       </c>
       <c r="G219" s="7" t="n">
-        <v>42735</v>
+        <v>42369</v>
       </c>
       <c r="H219" s="6" t="n">
         <v>405002</v>
@@ -13596,21 +13590,21 @@
         </is>
       </c>
       <c r="J219" s="6" t="n">
-        <v>0.055</v>
+        <v>0.051</v>
       </c>
       <c r="K219" s="6" t="n"/>
       <c r="L219" s="7" t="n">
-        <v>42755</v>
+        <v>42388</v>
       </c>
       <c r="M219" s="7" t="n">
-        <v>42758</v>
+        <v>42389</v>
       </c>
       <c r="N219" s="7" t="n">
-        <v>42761</v>
+        <v>42394</v>
       </c>
       <c r="O219" s="6" t="n"/>
       <c r="P219" s="7" t="n">
-        <v>42752</v>
+        <v>42383</v>
       </c>
       <c r="Q219" s="6" t="n"/>
       <c r="R219" s="6" t="n"/>
@@ -13620,7 +13614,7 @@
     </row>
     <row r="220">
       <c r="A220" s="5" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" s="6" t="inlineStr">
         <is>
@@ -13633,7 +13627,7 @@
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>43117</v>
+        <v>42752</v>
       </c>
       <c r="E220" s="6" t="n">
         <v>404001</v>
@@ -13644,7 +13638,7 @@
         </is>
       </c>
       <c r="G220" s="7" t="n">
-        <v>43100</v>
+        <v>42735</v>
       </c>
       <c r="H220" s="6" t="n">
         <v>405002</v>
@@ -13655,21 +13649,21 @@
         </is>
       </c>
       <c r="J220" s="6" t="n">
-        <v>0.046</v>
+        <v>0.055</v>
       </c>
       <c r="K220" s="6" t="n"/>
       <c r="L220" s="7" t="n">
-        <v>43122</v>
+        <v>42755</v>
       </c>
       <c r="M220" s="7" t="n">
-        <v>43123</v>
+        <v>42758</v>
       </c>
       <c r="N220" s="7" t="n">
-        <v>43126</v>
+        <v>42761</v>
       </c>
       <c r="O220" s="6" t="n"/>
       <c r="P220" s="7" t="n">
-        <v>43117</v>
+        <v>42752</v>
       </c>
       <c r="Q220" s="6" t="n"/>
       <c r="R220" s="6" t="n"/>
@@ -13679,7 +13673,7 @@
     </row>
     <row r="221">
       <c r="A221" s="5" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221" s="6" t="inlineStr">
         <is>
@@ -13692,7 +13686,7 @@
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>43475</v>
+        <v>43117</v>
       </c>
       <c r="E221" s="6" t="n">
         <v>404001</v>
@@ -13703,7 +13697,7 @@
         </is>
       </c>
       <c r="G221" s="7" t="n">
-        <v>43465</v>
+        <v>43100</v>
       </c>
       <c r="H221" s="6" t="n">
         <v>405002</v>
@@ -13714,21 +13708,21 @@
         </is>
       </c>
       <c r="J221" s="6" t="n">
-        <v>0.059</v>
+        <v>0.046</v>
       </c>
       <c r="K221" s="6" t="n"/>
       <c r="L221" s="7" t="n">
-        <v>43480</v>
+        <v>43122</v>
       </c>
       <c r="M221" s="7" t="n">
-        <v>43481</v>
+        <v>43123</v>
       </c>
       <c r="N221" s="7" t="n">
-        <v>43486</v>
+        <v>43126</v>
       </c>
       <c r="O221" s="6" t="n"/>
       <c r="P221" s="7" t="n">
-        <v>43475</v>
+        <v>43117</v>
       </c>
       <c r="Q221" s="6" t="n"/>
       <c r="R221" s="6" t="n"/>
@@ -13738,7 +13732,7 @@
     </row>
     <row r="222">
       <c r="A222" s="5" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222" s="6" t="inlineStr">
         <is>
@@ -13751,7 +13745,7 @@
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>43804</v>
+        <v>43475</v>
       </c>
       <c r="E222" s="6" t="n">
         <v>404001</v>
@@ -13762,7 +13756,7 @@
         </is>
       </c>
       <c r="G222" s="7" t="n">
-        <v>43791</v>
+        <v>43465</v>
       </c>
       <c r="H222" s="6" t="n">
         <v>405002</v>
@@ -13773,21 +13767,21 @@
         </is>
       </c>
       <c r="J222" s="6" t="n">
-        <v>0.062</v>
+        <v>0.059</v>
       </c>
       <c r="K222" s="6" t="n"/>
       <c r="L222" s="7" t="n">
-        <v>43809</v>
+        <v>43480</v>
       </c>
       <c r="M222" s="7" t="n">
-        <v>43810</v>
+        <v>43481</v>
       </c>
       <c r="N222" s="7" t="n">
-        <v>43815</v>
+        <v>43486</v>
       </c>
       <c r="O222" s="6" t="n"/>
       <c r="P222" s="7" t="n">
-        <v>43804</v>
+        <v>43475</v>
       </c>
       <c r="Q222" s="6" t="n"/>
       <c r="R222" s="6" t="n"/>
@@ -13797,45 +13791,57 @@
     </row>
     <row r="223">
       <c r="A223" s="5" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223" s="6" t="inlineStr">
         <is>
-          <t>510500</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="C223" s="6" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>42109</v>
+        <v>43804</v>
       </c>
       <c r="E223" s="6" t="n">
-        <v>404003</v>
+        <v>404001</v>
       </c>
       <c r="F223" s="6" t="inlineStr">
         <is>
-          <t>基金合并</t>
-        </is>
-      </c>
-      <c r="G223" s="6" t="n"/>
-      <c r="H223" s="6" t="n"/>
-      <c r="I223" s="6" t="n"/>
-      <c r="J223" s="6" t="n"/>
-      <c r="K223" s="6" t="n">
-        <v>0.28032483</v>
-      </c>
+          <t>基金分红</t>
+        </is>
+      </c>
+      <c r="G223" s="7" t="n">
+        <v>43791</v>
+      </c>
+      <c r="H223" s="6" t="n">
+        <v>405002</v>
+      </c>
+      <c r="I223" s="6" t="inlineStr">
+        <is>
+          <t>实施方案</t>
+        </is>
+      </c>
+      <c r="J223" s="6" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="K223" s="6" t="n"/>
       <c r="L223" s="7" t="n">
-        <v>42107</v>
+        <v>43809</v>
       </c>
       <c r="M223" s="7" t="n">
-        <v>42108</v>
-      </c>
-      <c r="N223" s="6" t="n"/>
+        <v>43810</v>
+      </c>
+      <c r="N223" s="7" t="n">
+        <v>43815</v>
+      </c>
       <c r="O223" s="6" t="n"/>
-      <c r="P223" s="6" t="n"/>
+      <c r="P223" s="7" t="n">
+        <v>43804</v>
+      </c>
       <c r="Q223" s="6" t="n"/>
       <c r="R223" s="6" t="n"/>
       <c r="S223" s="6" t="n"/>
@@ -13844,57 +13850,45 @@
     </row>
     <row r="224">
       <c r="A224" s="5" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B224" s="6" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>510500</t>
         </is>
       </c>
       <c r="C224" s="6" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>43276</v>
+        <v>42109</v>
       </c>
       <c r="E224" s="6" t="n">
-        <v>404001</v>
+        <v>404003</v>
       </c>
       <c r="F224" s="6" t="inlineStr">
         <is>
-          <t>基金分红</t>
-        </is>
-      </c>
-      <c r="G224" s="7" t="n">
-        <v>43265</v>
-      </c>
-      <c r="H224" s="6" t="n">
-        <v>405002</v>
-      </c>
-      <c r="I224" s="6" t="inlineStr">
-        <is>
-          <t>实施方案</t>
-        </is>
-      </c>
-      <c r="J224" s="6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K224" s="6" t="n"/>
+          <t>基金合并</t>
+        </is>
+      </c>
+      <c r="G224" s="6" t="n"/>
+      <c r="H224" s="6" t="n"/>
+      <c r="I224" s="6" t="n"/>
+      <c r="J224" s="6" t="n"/>
+      <c r="K224" s="6" t="n">
+        <v>0.28032483</v>
+      </c>
       <c r="L224" s="7" t="n">
-        <v>43279</v>
+        <v>42107</v>
       </c>
       <c r="M224" s="7" t="n">
-        <v>43280</v>
-      </c>
-      <c r="N224" s="7" t="n">
-        <v>43285</v>
-      </c>
+        <v>42108</v>
+      </c>
+      <c r="N224" s="6" t="n"/>
       <c r="O224" s="6" t="n"/>
-      <c r="P224" s="7" t="n">
-        <v>43276</v>
-      </c>
+      <c r="P224" s="6" t="n"/>
       <c r="Q224" s="6" t="n"/>
       <c r="R224" s="6" t="n"/>
       <c r="S224" s="6" t="n"/>
@@ -13903,45 +13897,57 @@
     </row>
     <row r="225">
       <c r="A225" s="5" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225" s="6" t="inlineStr">
         <is>
-          <t>511010</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C225" s="6" t="inlineStr">
         <is>
-          <t>国债ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>41340</v>
+        <v>43276</v>
       </c>
       <c r="E225" s="6" t="n">
-        <v>404003</v>
+        <v>404001</v>
       </c>
       <c r="F225" s="6" t="inlineStr">
         <is>
-          <t>基金合并</t>
-        </is>
-      </c>
-      <c r="G225" s="6" t="n"/>
-      <c r="H225" s="6" t="n"/>
-      <c r="I225" s="6" t="n"/>
-      <c r="J225" s="6" t="n"/>
-      <c r="K225" s="6" t="n">
-        <v>0.01</v>
-      </c>
+          <t>基金分红</t>
+        </is>
+      </c>
+      <c r="G225" s="7" t="n">
+        <v>43265</v>
+      </c>
+      <c r="H225" s="6" t="n">
+        <v>405002</v>
+      </c>
+      <c r="I225" s="6" t="inlineStr">
+        <is>
+          <t>实施方案</t>
+        </is>
+      </c>
+      <c r="J225" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K225" s="6" t="n"/>
       <c r="L225" s="7" t="n">
-        <v>41338</v>
+        <v>43279</v>
       </c>
       <c r="M225" s="7" t="n">
-        <v>41338</v>
-      </c>
-      <c r="N225" s="6" t="n"/>
+        <v>43280</v>
+      </c>
+      <c r="N225" s="7" t="n">
+        <v>43285</v>
+      </c>
       <c r="O225" s="6" t="n"/>
-      <c r="P225" s="6" t="n"/>
+      <c r="P225" s="7" t="n">
+        <v>43276</v>
+      </c>
       <c r="Q225" s="6" t="n"/>
       <c r="R225" s="6" t="n"/>
       <c r="S225" s="6" t="n"/>
@@ -13950,7 +13956,7 @@
     </row>
     <row r="226">
       <c r="A226" s="5" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B226" s="6" t="inlineStr">
         <is>
@@ -13963,55 +13969,41 @@
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>41422</v>
+        <v>41340</v>
       </c>
       <c r="E226" s="6" t="n">
-        <v>404001</v>
+        <v>404003</v>
       </c>
       <c r="F226" s="6" t="inlineStr">
         <is>
-          <t>基金分红</t>
-        </is>
-      </c>
-      <c r="G226" s="7" t="n">
-        <v>41411</v>
-      </c>
-      <c r="H226" s="6" t="n">
-        <v>405002</v>
-      </c>
-      <c r="I226" s="6" t="inlineStr">
-        <is>
-          <t>实施方案</t>
-        </is>
-      </c>
-      <c r="J226" s="6" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K226" s="6" t="n"/>
+          <t>基金合并</t>
+        </is>
+      </c>
+      <c r="G226" s="6" t="n"/>
+      <c r="H226" s="6" t="n"/>
+      <c r="I226" s="6" t="n"/>
+      <c r="J226" s="6" t="n"/>
+      <c r="K226" s="6" t="n">
+        <v>0.01</v>
+      </c>
       <c r="L226" s="7" t="n">
-        <v>41425</v>
+        <v>41338</v>
       </c>
       <c r="M226" s="7" t="n">
-        <v>41428</v>
+        <v>41338</v>
       </c>
       <c r="N226" s="6" t="n"/>
       <c r="O226" s="6" t="n"/>
-      <c r="P226" s="7" t="n">
-        <v>41422</v>
-      </c>
+      <c r="P226" s="6" t="n"/>
       <c r="Q226" s="6" t="n"/>
-      <c r="R226" s="7" t="n">
-        <v>41428</v>
-      </c>
-      <c r="S226" s="7" t="n">
-        <v>41432</v>
-      </c>
+      <c r="R226" s="6" t="n"/>
+      <c r="S226" s="6" t="n"/>
       <c r="T226" s="6" t="n"/>
       <c r="U226" s="6" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="5" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B227" s="6" t="inlineStr">
         <is>
@@ -14024,7 +14016,7 @@
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>42272</v>
+        <v>41422</v>
       </c>
       <c r="E227" s="6" t="n">
         <v>404001</v>
@@ -14035,7 +14027,7 @@
         </is>
       </c>
       <c r="G227" s="7" t="n">
-        <v>42264</v>
+        <v>41411</v>
       </c>
       <c r="H227" s="6" t="n">
         <v>405002</v>
@@ -14046,69 +14038,83 @@
         </is>
       </c>
       <c r="J227" s="6" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="K227" s="6" t="n"/>
       <c r="L227" s="7" t="n">
-        <v>42285</v>
+        <v>41425</v>
       </c>
       <c r="M227" s="7" t="n">
-        <v>42286</v>
-      </c>
-      <c r="N227" s="7" t="n">
-        <v>42291</v>
-      </c>
+        <v>41428</v>
+      </c>
+      <c r="N227" s="6" t="n"/>
       <c r="O227" s="6" t="n"/>
       <c r="P227" s="7" t="n">
-        <v>42272</v>
+        <v>41422</v>
       </c>
       <c r="Q227" s="6" t="n"/>
-      <c r="R227" s="6" t="n"/>
-      <c r="S227" s="6" t="n"/>
+      <c r="R227" s="7" t="n">
+        <v>41428</v>
+      </c>
+      <c r="S227" s="7" t="n">
+        <v>41432</v>
+      </c>
       <c r="T227" s="6" t="n"/>
       <c r="U227" s="6" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="5" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B228" s="6" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>511010</t>
         </is>
       </c>
       <c r="C228" s="6" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>国债ETF</t>
         </is>
       </c>
       <c r="D228" s="7" t="n">
-        <v>41481</v>
+        <v>42272</v>
       </c>
       <c r="E228" s="6" t="n">
-        <v>404003</v>
+        <v>404001</v>
       </c>
       <c r="F228" s="6" t="inlineStr">
         <is>
-          <t>基金合并</t>
-        </is>
-      </c>
-      <c r="G228" s="6" t="n"/>
-      <c r="H228" s="6" t="n"/>
-      <c r="I228" s="6" t="n"/>
-      <c r="J228" s="6" t="n"/>
-      <c r="K228" s="6" t="n">
-        <v>0.37761358</v>
-      </c>
+          <t>基金分红</t>
+        </is>
+      </c>
+      <c r="G228" s="7" t="n">
+        <v>42264</v>
+      </c>
+      <c r="H228" s="6" t="n">
+        <v>405002</v>
+      </c>
+      <c r="I228" s="6" t="inlineStr">
+        <is>
+          <t>实施方案</t>
+        </is>
+      </c>
+      <c r="J228" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" s="6" t="n"/>
       <c r="L228" s="7" t="n">
-        <v>41479</v>
+        <v>42285</v>
       </c>
       <c r="M228" s="7" t="n">
-        <v>41479</v>
-      </c>
-      <c r="N228" s="6" t="n"/>
+        <v>42286</v>
+      </c>
+      <c r="N228" s="7" t="n">
+        <v>42291</v>
+      </c>
       <c r="O228" s="6" t="n"/>
-      <c r="P228" s="6" t="n"/>
+      <c r="P228" s="7" t="n">
+        <v>42272</v>
+      </c>
       <c r="Q228" s="6" t="n"/>
       <c r="R228" s="6" t="n"/>
       <c r="S228" s="6" t="n"/>
@@ -14117,68 +14123,54 @@
     </row>
     <row r="229">
       <c r="A229" s="5" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229" s="6" t="inlineStr">
         <is>
-          <t>519153</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="C229" s="6" t="inlineStr">
         <is>
-          <t>新华纯债添利C</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D229" s="7" t="n">
-        <v>43274</v>
+        <v>41481</v>
       </c>
       <c r="E229" s="6" t="n">
-        <v>404001</v>
+        <v>404003</v>
       </c>
       <c r="F229" s="6" t="inlineStr">
         <is>
-          <t>基金分红</t>
-        </is>
-      </c>
-      <c r="G229" s="7" t="n">
-        <v>43271</v>
-      </c>
-      <c r="H229" s="6" t="n">
-        <v>405002</v>
-      </c>
-      <c r="I229" s="6" t="inlineStr">
-        <is>
-          <t>实施方案</t>
-        </is>
-      </c>
-      <c r="J229" s="6" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="K229" s="6" t="n"/>
+          <t>基金合并</t>
+        </is>
+      </c>
+      <c r="G229" s="6" t="n"/>
+      <c r="H229" s="6" t="n"/>
+      <c r="I229" s="6" t="n"/>
+      <c r="J229" s="6" t="n"/>
+      <c r="K229" s="6" t="n">
+        <v>0.37761358</v>
+      </c>
       <c r="L229" s="7" t="n">
-        <v>43276</v>
+        <v>41479</v>
       </c>
       <c r="M229" s="7" t="n">
-        <v>43276</v>
+        <v>41479</v>
       </c>
       <c r="N229" s="6" t="n"/>
       <c r="O229" s="6" t="n"/>
-      <c r="P229" s="7" t="n">
-        <v>43274</v>
-      </c>
+      <c r="P229" s="6" t="n"/>
       <c r="Q229" s="6" t="n"/>
-      <c r="R229" s="7" t="n">
-        <v>43276</v>
-      </c>
-      <c r="S229" s="7" t="n">
-        <v>43278</v>
-      </c>
+      <c r="R229" s="6" t="n"/>
+      <c r="S229" s="6" t="n"/>
       <c r="T229" s="6" t="n"/>
       <c r="U229" s="6" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="5" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B230" s="6" t="inlineStr">
         <is>
@@ -14191,7 +14183,7 @@
         </is>
       </c>
       <c r="D230" s="7" t="n">
-        <v>43365</v>
+        <v>43274</v>
       </c>
       <c r="E230" s="6" t="n">
         <v>404001</v>
@@ -14202,7 +14194,7 @@
         </is>
       </c>
       <c r="G230" s="7" t="n">
-        <v>43363</v>
+        <v>43271</v>
       </c>
       <c r="H230" s="6" t="n">
         <v>405002</v>
@@ -14213,31 +14205,33 @@
         </is>
       </c>
       <c r="J230" s="6" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="K230" s="6" t="n"/>
       <c r="L230" s="7" t="n">
-        <v>43368</v>
-      </c>
-      <c r="M230" s="6" t="n"/>
+        <v>43276</v>
+      </c>
+      <c r="M230" s="7" t="n">
+        <v>43276</v>
+      </c>
       <c r="N230" s="6" t="n"/>
       <c r="O230" s="6" t="n"/>
       <c r="P230" s="7" t="n">
-        <v>43365</v>
+        <v>43274</v>
       </c>
       <c r="Q230" s="6" t="n"/>
       <c r="R230" s="7" t="n">
-        <v>43368</v>
+        <v>43276</v>
       </c>
       <c r="S230" s="7" t="n">
-        <v>43370</v>
+        <v>43278</v>
       </c>
       <c r="T230" s="6" t="n"/>
       <c r="U230" s="6" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="5" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B231" s="6" t="inlineStr">
         <is>
@@ -14250,7 +14244,7 @@
         </is>
       </c>
       <c r="D231" s="7" t="n">
-        <v>43444</v>
+        <v>43365</v>
       </c>
       <c r="E231" s="6" t="n">
         <v>404001</v>
@@ -14261,7 +14255,7 @@
         </is>
       </c>
       <c r="G231" s="7" t="n">
-        <v>43438</v>
+        <v>43363</v>
       </c>
       <c r="H231" s="6" t="n">
         <v>405002</v>
@@ -14272,31 +14266,31 @@
         </is>
       </c>
       <c r="J231" s="6" t="n">
-        <v>0.102</v>
+        <v>0.061</v>
       </c>
       <c r="K231" s="6" t="n"/>
       <c r="L231" s="7" t="n">
-        <v>43446</v>
+        <v>43368</v>
       </c>
       <c r="M231" s="6" t="n"/>
       <c r="N231" s="6" t="n"/>
       <c r="O231" s="6" t="n"/>
       <c r="P231" s="7" t="n">
-        <v>43444</v>
+        <v>43365</v>
       </c>
       <c r="Q231" s="6" t="n"/>
       <c r="R231" s="7" t="n">
-        <v>43446</v>
+        <v>43368</v>
       </c>
       <c r="S231" s="7" t="n">
-        <v>43448</v>
+        <v>43370</v>
       </c>
       <c r="T231" s="6" t="n"/>
       <c r="U231" s="6" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="5" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B232" s="6" t="inlineStr">
         <is>
@@ -14309,7 +14303,7 @@
         </is>
       </c>
       <c r="D232" s="7" t="n">
-        <v>43544</v>
+        <v>43444</v>
       </c>
       <c r="E232" s="6" t="n">
         <v>404001</v>
@@ -14320,7 +14314,7 @@
         </is>
       </c>
       <c r="G232" s="7" t="n">
-        <v>43539</v>
+        <v>43438</v>
       </c>
       <c r="H232" s="6" t="n">
         <v>405002</v>
@@ -14331,31 +14325,31 @@
         </is>
       </c>
       <c r="J232" s="6" t="n">
-        <v>0.054</v>
+        <v>0.102</v>
       </c>
       <c r="K232" s="6" t="n"/>
       <c r="L232" s="7" t="n">
-        <v>43546</v>
+        <v>43446</v>
       </c>
       <c r="M232" s="6" t="n"/>
       <c r="N232" s="6" t="n"/>
       <c r="O232" s="6" t="n"/>
       <c r="P232" s="7" t="n">
-        <v>43544</v>
+        <v>43444</v>
       </c>
       <c r="Q232" s="6" t="n"/>
       <c r="R232" s="7" t="n">
-        <v>43546</v>
+        <v>43446</v>
       </c>
       <c r="S232" s="7" t="n">
-        <v>43550</v>
+        <v>43448</v>
       </c>
       <c r="T232" s="6" t="n"/>
       <c r="U232" s="6" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="5" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B233" s="6" t="inlineStr">
         <is>
@@ -14390,11 +14384,11 @@
         </is>
       </c>
       <c r="J233" s="6" t="n">
-        <v>0.015</v>
+        <v>0.054</v>
       </c>
       <c r="K233" s="6" t="n"/>
       <c r="L233" s="7" t="n">
-        <v>43545</v>
+        <v>43546</v>
       </c>
       <c r="M233" s="6" t="n"/>
       <c r="N233" s="6" t="n"/>
@@ -14404,30 +14398,30 @@
       </c>
       <c r="Q233" s="6" t="n"/>
       <c r="R233" s="7" t="n">
-        <v>43545</v>
+        <v>43546</v>
       </c>
       <c r="S233" s="7" t="n">
-        <v>43546</v>
+        <v>43550</v>
       </c>
       <c r="T233" s="6" t="n"/>
       <c r="U233" s="6" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="5" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B234" s="6" t="inlineStr">
         <is>
-          <t>519671</t>
+          <t>519153</t>
         </is>
       </c>
       <c r="C234" s="6" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>新华纯债添利C</t>
         </is>
       </c>
       <c r="D234" s="7" t="n">
-        <v>43729</v>
+        <v>43544</v>
       </c>
       <c r="E234" s="6" t="n">
         <v>404001</v>
@@ -14438,7 +14432,7 @@
         </is>
       </c>
       <c r="G234" s="7" t="n">
-        <v>43720</v>
+        <v>43539</v>
       </c>
       <c r="H234" s="6" t="n">
         <v>405002</v>
@@ -14449,46 +14443,44 @@
         </is>
       </c>
       <c r="J234" s="6" t="n">
-        <v>0.225</v>
+        <v>0.015</v>
       </c>
       <c r="K234" s="6" t="n"/>
       <c r="L234" s="7" t="n">
-        <v>43732</v>
+        <v>43545</v>
       </c>
       <c r="M234" s="6" t="n"/>
       <c r="N234" s="6" t="n"/>
-      <c r="O234" s="7" t="n">
-        <v>43734</v>
-      </c>
+      <c r="O234" s="6" t="n"/>
       <c r="P234" s="7" t="n">
-        <v>43729</v>
+        <v>43544</v>
       </c>
       <c r="Q234" s="6" t="n"/>
       <c r="R234" s="7" t="n">
-        <v>43732</v>
+        <v>43545</v>
       </c>
       <c r="S234" s="7" t="n">
-        <v>43734</v>
+        <v>43546</v>
       </c>
       <c r="T234" s="6" t="n"/>
       <c r="U234" s="6" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="5" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B235" s="6" t="inlineStr">
         <is>
-          <t>519700</t>
+          <t>519671</t>
         </is>
       </c>
       <c r="C235" s="6" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="D235" s="7" t="n">
-        <v>40550</v>
+        <v>43729</v>
       </c>
       <c r="E235" s="6" t="n">
         <v>404001</v>
@@ -14499,7 +14491,7 @@
         </is>
       </c>
       <c r="G235" s="7" t="n">
-        <v>40543</v>
+        <v>43720</v>
       </c>
       <c r="H235" s="6" t="n">
         <v>405002</v>
@@ -14510,35 +14502,33 @@
         </is>
       </c>
       <c r="J235" s="6" t="n">
-        <v>0.015</v>
+        <v>0.225</v>
       </c>
       <c r="K235" s="6" t="n"/>
       <c r="L235" s="7" t="n">
-        <v>40555</v>
-      </c>
-      <c r="M235" s="7" t="n">
-        <v>40555</v>
-      </c>
+        <v>43732</v>
+      </c>
+      <c r="M235" s="6" t="n"/>
       <c r="N235" s="6" t="n"/>
       <c r="O235" s="7" t="n">
-        <v>40557</v>
+        <v>43734</v>
       </c>
       <c r="P235" s="7" t="n">
-        <v>40556</v>
+        <v>43729</v>
       </c>
       <c r="Q235" s="6" t="n"/>
       <c r="R235" s="7" t="n">
-        <v>40555</v>
+        <v>43732</v>
       </c>
       <c r="S235" s="7" t="n">
-        <v>40557</v>
+        <v>43734</v>
       </c>
       <c r="T235" s="6" t="n"/>
       <c r="U235" s="6" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="5" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B236" s="6" t="inlineStr">
         <is>
@@ -14551,7 +14541,7 @@
         </is>
       </c>
       <c r="D236" s="7" t="n">
-        <v>42786</v>
+        <v>40550</v>
       </c>
       <c r="E236" s="6" t="n">
         <v>404001</v>
@@ -14562,7 +14552,7 @@
         </is>
       </c>
       <c r="G236" s="7" t="n">
-        <v>42779</v>
+        <v>40543</v>
       </c>
       <c r="H236" s="6" t="n">
         <v>405002</v>
@@ -14573,35 +14563,35 @@
         </is>
       </c>
       <c r="J236" s="6" t="n">
-        <v>0.912</v>
+        <v>0.015</v>
       </c>
       <c r="K236" s="6" t="n"/>
       <c r="L236" s="7" t="n">
-        <v>42788</v>
+        <v>40555</v>
       </c>
       <c r="M236" s="7" t="n">
-        <v>42788</v>
+        <v>40555</v>
       </c>
       <c r="N236" s="6" t="n"/>
       <c r="O236" s="7" t="n">
-        <v>42790</v>
+        <v>40557</v>
       </c>
       <c r="P236" s="7" t="n">
-        <v>42786</v>
+        <v>40556</v>
       </c>
       <c r="Q236" s="6" t="n"/>
       <c r="R236" s="7" t="n">
-        <v>42788</v>
+        <v>40555</v>
       </c>
       <c r="S236" s="7" t="n">
-        <v>42790</v>
+        <v>40557</v>
       </c>
       <c r="T236" s="6" t="n"/>
       <c r="U236" s="6" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="5" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B237" s="6" t="inlineStr">
         <is>
@@ -14614,7 +14604,7 @@
         </is>
       </c>
       <c r="D237" s="7" t="n">
-        <v>44000</v>
+        <v>42786</v>
       </c>
       <c r="E237" s="6" t="n">
         <v>404001</v>
@@ -14625,7 +14615,7 @@
         </is>
       </c>
       <c r="G237" s="7" t="n">
-        <v>43991</v>
+        <v>42779</v>
       </c>
       <c r="H237" s="6" t="n">
         <v>405002</v>
@@ -14636,46 +14626,48 @@
         </is>
       </c>
       <c r="J237" s="6" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.912</v>
       </c>
       <c r="K237" s="6" t="n"/>
       <c r="L237" s="7" t="n">
-        <v>44004</v>
-      </c>
-      <c r="M237" s="6" t="n"/>
+        <v>42788</v>
+      </c>
+      <c r="M237" s="7" t="n">
+        <v>42788</v>
+      </c>
       <c r="N237" s="6" t="n"/>
       <c r="O237" s="7" t="n">
-        <v>44006</v>
+        <v>42790</v>
       </c>
       <c r="P237" s="7" t="n">
-        <v>44000</v>
+        <v>42786</v>
       </c>
       <c r="Q237" s="6" t="n"/>
       <c r="R237" s="7" t="n">
-        <v>44004</v>
+        <v>42788</v>
       </c>
       <c r="S237" s="7" t="n">
-        <v>44006</v>
+        <v>42790</v>
       </c>
       <c r="T237" s="6" t="n"/>
       <c r="U237" s="6" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="5" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B238" s="6" t="inlineStr">
         <is>
-          <t>519718</t>
+          <t>519700</t>
         </is>
       </c>
       <c r="C238" s="6" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="D238" s="7" t="n">
-        <v>41465</v>
+        <v>44000</v>
       </c>
       <c r="E238" s="6" t="n">
         <v>404001</v>
@@ -14686,7 +14678,7 @@
         </is>
       </c>
       <c r="G238" s="7" t="n">
-        <v>41453</v>
+        <v>43991</v>
       </c>
       <c r="H238" s="6" t="n">
         <v>405002</v>
@@ -14697,35 +14689,33 @@
         </is>
       </c>
       <c r="J238" s="6" t="n">
-        <v>0.007</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K238" s="6" t="n"/>
       <c r="L238" s="7" t="n">
-        <v>41464</v>
-      </c>
-      <c r="M238" s="7" t="n">
-        <v>41464</v>
-      </c>
+        <v>44004</v>
+      </c>
+      <c r="M238" s="6" t="n"/>
       <c r="N238" s="6" t="n"/>
       <c r="O238" s="7" t="n">
-        <v>41466</v>
+        <v>44006</v>
       </c>
       <c r="P238" s="7" t="n">
-        <v>41465</v>
+        <v>44000</v>
       </c>
       <c r="Q238" s="6" t="n"/>
       <c r="R238" s="7" t="n">
-        <v>41464</v>
+        <v>44004</v>
       </c>
       <c r="S238" s="7" t="n">
-        <v>41466</v>
+        <v>44006</v>
       </c>
       <c r="T238" s="6" t="n"/>
       <c r="U238" s="6" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="5" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B239" s="6" t="inlineStr">
         <is>
@@ -14738,7 +14728,7 @@
         </is>
       </c>
       <c r="D239" s="7" t="n">
-        <v>41926</v>
+        <v>41465</v>
       </c>
       <c r="E239" s="6" t="n">
         <v>404001</v>
@@ -14749,7 +14739,7 @@
         </is>
       </c>
       <c r="G239" s="7" t="n">
-        <v>41912</v>
+        <v>41453</v>
       </c>
       <c r="H239" s="6" t="n">
         <v>405002</v>
@@ -14760,35 +14750,35 @@
         </is>
       </c>
       <c r="J239" s="6" t="n">
-        <v>0.025</v>
+        <v>0.007</v>
       </c>
       <c r="K239" s="6" t="n"/>
       <c r="L239" s="7" t="n">
-        <v>41928</v>
+        <v>41464</v>
       </c>
       <c r="M239" s="7" t="n">
-        <v>41928</v>
+        <v>41464</v>
       </c>
       <c r="N239" s="6" t="n"/>
       <c r="O239" s="7" t="n">
-        <v>41932</v>
+        <v>41466</v>
       </c>
       <c r="P239" s="7" t="n">
-        <v>41926</v>
+        <v>41465</v>
       </c>
       <c r="Q239" s="6" t="n"/>
       <c r="R239" s="7" t="n">
-        <v>41928</v>
+        <v>41464</v>
       </c>
       <c r="S239" s="7" t="n">
-        <v>41932</v>
+        <v>41466</v>
       </c>
       <c r="T239" s="6" t="n"/>
       <c r="U239" s="6" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="5" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240" s="6" t="inlineStr">
         <is>
@@ -14801,7 +14791,7 @@
         </is>
       </c>
       <c r="D240" s="7" t="n">
-        <v>42018</v>
+        <v>41926</v>
       </c>
       <c r="E240" s="6" t="n">
         <v>404001</v>
@@ -14812,7 +14802,7 @@
         </is>
       </c>
       <c r="G240" s="7" t="n">
-        <v>42004</v>
+        <v>41912</v>
       </c>
       <c r="H240" s="6" t="n">
         <v>405002</v>
@@ -14823,35 +14813,35 @@
         </is>
       </c>
       <c r="J240" s="6" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="K240" s="6" t="n"/>
       <c r="L240" s="7" t="n">
-        <v>42024</v>
+        <v>41928</v>
       </c>
       <c r="M240" s="7" t="n">
-        <v>42024</v>
+        <v>41928</v>
       </c>
       <c r="N240" s="6" t="n"/>
       <c r="O240" s="7" t="n">
-        <v>42026</v>
+        <v>41932</v>
       </c>
       <c r="P240" s="7" t="n">
-        <v>42018</v>
+        <v>41926</v>
       </c>
       <c r="Q240" s="6" t="n"/>
       <c r="R240" s="7" t="n">
-        <v>42024</v>
+        <v>41928</v>
       </c>
       <c r="S240" s="7" t="n">
-        <v>42026</v>
+        <v>41932</v>
       </c>
       <c r="T240" s="6" t="n"/>
       <c r="U240" s="6" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="5" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B241" s="6" t="inlineStr">
         <is>
@@ -14864,7 +14854,7 @@
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>42104</v>
+        <v>42018</v>
       </c>
       <c r="E241" s="6" t="n">
         <v>404001</v>
@@ -14875,7 +14865,7 @@
         </is>
       </c>
       <c r="G241" s="7" t="n">
-        <v>42094</v>
+        <v>42004</v>
       </c>
       <c r="H241" s="6" t="n">
         <v>405002</v>
@@ -14890,31 +14880,31 @@
       </c>
       <c r="K241" s="6" t="n"/>
       <c r="L241" s="7" t="n">
-        <v>42108</v>
+        <v>42024</v>
       </c>
       <c r="M241" s="7" t="n">
-        <v>42108</v>
+        <v>42024</v>
       </c>
       <c r="N241" s="6" t="n"/>
       <c r="O241" s="7" t="n">
-        <v>42110</v>
+        <v>42026</v>
       </c>
       <c r="P241" s="7" t="n">
-        <v>42104</v>
+        <v>42018</v>
       </c>
       <c r="Q241" s="6" t="n"/>
       <c r="R241" s="7" t="n">
-        <v>42108</v>
+        <v>42024</v>
       </c>
       <c r="S241" s="7" t="n">
-        <v>42110</v>
+        <v>42026</v>
       </c>
       <c r="T241" s="6" t="n"/>
       <c r="U241" s="6" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="5" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B242" s="6" t="inlineStr">
         <is>
@@ -14927,7 +14917,7 @@
         </is>
       </c>
       <c r="D242" s="7" t="n">
-        <v>42194</v>
+        <v>42104</v>
       </c>
       <c r="E242" s="6" t="n">
         <v>404001</v>
@@ -14938,7 +14928,7 @@
         </is>
       </c>
       <c r="G242" s="7" t="n">
-        <v>42185</v>
+        <v>42094</v>
       </c>
       <c r="H242" s="6" t="n">
         <v>405002</v>
@@ -14949,35 +14939,35 @@
         </is>
       </c>
       <c r="J242" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K242" s="6" t="n"/>
       <c r="L242" s="7" t="n">
-        <v>42198</v>
+        <v>42108</v>
       </c>
       <c r="M242" s="7" t="n">
-        <v>42198</v>
+        <v>42108</v>
       </c>
       <c r="N242" s="6" t="n"/>
       <c r="O242" s="7" t="n">
-        <v>42200</v>
+        <v>42110</v>
       </c>
       <c r="P242" s="7" t="n">
-        <v>42194</v>
+        <v>42104</v>
       </c>
       <c r="Q242" s="6" t="n"/>
       <c r="R242" s="7" t="n">
-        <v>42198</v>
+        <v>42108</v>
       </c>
       <c r="S242" s="7" t="n">
-        <v>42200</v>
+        <v>42110</v>
       </c>
       <c r="T242" s="6" t="n"/>
       <c r="U242" s="6" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="5" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B243" s="6" t="inlineStr">
         <is>
@@ -14990,7 +14980,7 @@
         </is>
       </c>
       <c r="D243" s="7" t="n">
-        <v>42293</v>
+        <v>42194</v>
       </c>
       <c r="E243" s="6" t="n">
         <v>404001</v>
@@ -15001,7 +14991,7 @@
         </is>
       </c>
       <c r="G243" s="7" t="n">
-        <v>42277</v>
+        <v>42185</v>
       </c>
       <c r="H243" s="6" t="n">
         <v>405002</v>
@@ -15016,31 +15006,31 @@
       </c>
       <c r="K243" s="6" t="n"/>
       <c r="L243" s="7" t="n">
-        <v>42297</v>
+        <v>42198</v>
       </c>
       <c r="M243" s="7" t="n">
-        <v>42297</v>
+        <v>42198</v>
       </c>
       <c r="N243" s="6" t="n"/>
       <c r="O243" s="7" t="n">
-        <v>42299</v>
+        <v>42200</v>
       </c>
       <c r="P243" s="7" t="n">
-        <v>42293</v>
+        <v>42194</v>
       </c>
       <c r="Q243" s="6" t="n"/>
       <c r="R243" s="7" t="n">
-        <v>42297</v>
+        <v>42198</v>
       </c>
       <c r="S243" s="7" t="n">
-        <v>42299</v>
+        <v>42200</v>
       </c>
       <c r="T243" s="6" t="n"/>
       <c r="U243" s="6" t="n"/>
     </row>
     <row r="244">
       <c r="A244" s="5" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B244" s="6" t="inlineStr">
         <is>
@@ -15053,7 +15043,7 @@
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>42380</v>
+        <v>42293</v>
       </c>
       <c r="E244" s="6" t="n">
         <v>404001</v>
@@ -15064,7 +15054,7 @@
         </is>
       </c>
       <c r="G244" s="7" t="n">
-        <v>42369</v>
+        <v>42277</v>
       </c>
       <c r="H244" s="6" t="n">
         <v>405002</v>
@@ -15075,35 +15065,35 @@
         </is>
       </c>
       <c r="J244" s="6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K244" s="6" t="n"/>
       <c r="L244" s="7" t="n">
-        <v>42383</v>
+        <v>42297</v>
       </c>
       <c r="M244" s="7" t="n">
-        <v>42383</v>
+        <v>42297</v>
       </c>
       <c r="N244" s="6" t="n"/>
       <c r="O244" s="7" t="n">
-        <v>42387</v>
+        <v>42299</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>42380</v>
+        <v>42293</v>
       </c>
       <c r="Q244" s="6" t="n"/>
       <c r="R244" s="7" t="n">
-        <v>42383</v>
+        <v>42297</v>
       </c>
       <c r="S244" s="7" t="n">
-        <v>42387</v>
+        <v>42299</v>
       </c>
       <c r="T244" s="6" t="n"/>
       <c r="U244" s="6" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="5" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B245" s="6" t="inlineStr">
         <is>
@@ -15116,7 +15106,7 @@
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>42468</v>
+        <v>42380</v>
       </c>
       <c r="E245" s="6" t="n">
         <v>404001</v>
@@ -15127,7 +15117,7 @@
         </is>
       </c>
       <c r="G245" s="7" t="n">
-        <v>42460</v>
+        <v>42369</v>
       </c>
       <c r="H245" s="6" t="n">
         <v>405002</v>
@@ -15142,31 +15132,31 @@
       </c>
       <c r="K245" s="6" t="n"/>
       <c r="L245" s="7" t="n">
-        <v>42472</v>
+        <v>42383</v>
       </c>
       <c r="M245" s="7" t="n">
-        <v>42472</v>
+        <v>42383</v>
       </c>
       <c r="N245" s="6" t="n"/>
       <c r="O245" s="7" t="n">
-        <v>42474</v>
+        <v>42387</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>42468</v>
+        <v>42380</v>
       </c>
       <c r="Q245" s="6" t="n"/>
       <c r="R245" s="7" t="n">
-        <v>42472</v>
+        <v>42383</v>
       </c>
       <c r="S245" s="7" t="n">
-        <v>42474</v>
+        <v>42387</v>
       </c>
       <c r="T245" s="6" t="n"/>
       <c r="U245" s="6" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="5" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246" s="6" t="inlineStr">
         <is>
@@ -15179,7 +15169,7 @@
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>43475</v>
+        <v>42468</v>
       </c>
       <c r="E246" s="6" t="n">
         <v>404001</v>
@@ -15190,7 +15180,7 @@
         </is>
       </c>
       <c r="G246" s="7" t="n">
-        <v>43462</v>
+        <v>42460</v>
       </c>
       <c r="H246" s="6" t="n">
         <v>405002</v>
@@ -15205,29 +15195,31 @@
       </c>
       <c r="K246" s="6" t="n"/>
       <c r="L246" s="7" t="n">
-        <v>43479</v>
-      </c>
-      <c r="M246" s="6" t="n"/>
+        <v>42472</v>
+      </c>
+      <c r="M246" s="7" t="n">
+        <v>42472</v>
+      </c>
       <c r="N246" s="6" t="n"/>
       <c r="O246" s="7" t="n">
-        <v>43481</v>
+        <v>42474</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>43475</v>
+        <v>42468</v>
       </c>
       <c r="Q246" s="6" t="n"/>
       <c r="R246" s="7" t="n">
-        <v>43479</v>
+        <v>42472</v>
       </c>
       <c r="S246" s="7" t="n">
-        <v>43481</v>
+        <v>42474</v>
       </c>
       <c r="T246" s="6" t="n"/>
       <c r="U246" s="6" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="5" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B247" s="6" t="inlineStr">
         <is>
@@ -15240,7 +15232,7 @@
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>43565</v>
+        <v>43475</v>
       </c>
       <c r="E247" s="6" t="n">
         <v>404001</v>
@@ -15251,7 +15243,7 @@
         </is>
       </c>
       <c r="G247" s="7" t="n">
-        <v>43553</v>
+        <v>43462</v>
       </c>
       <c r="H247" s="6" t="n">
         <v>405002</v>
@@ -15262,33 +15254,33 @@
         </is>
       </c>
       <c r="J247" s="6" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="K247" s="6" t="n"/>
       <c r="L247" s="7" t="n">
-        <v>43567</v>
+        <v>43479</v>
       </c>
       <c r="M247" s="6" t="n"/>
       <c r="N247" s="6" t="n"/>
       <c r="O247" s="7" t="n">
-        <v>43571</v>
+        <v>43481</v>
       </c>
       <c r="P247" s="7" t="n">
-        <v>43565</v>
+        <v>43475</v>
       </c>
       <c r="Q247" s="6" t="n"/>
       <c r="R247" s="7" t="n">
-        <v>43567</v>
+        <v>43479</v>
       </c>
       <c r="S247" s="7" t="n">
-        <v>43571</v>
+        <v>43481</v>
       </c>
       <c r="T247" s="6" t="n"/>
       <c r="U247" s="6" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="5" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B248" s="6" t="inlineStr">
         <is>
@@ -15301,7 +15293,7 @@
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>43655</v>
+        <v>43565</v>
       </c>
       <c r="E248" s="6" t="n">
         <v>404001</v>
@@ -15312,7 +15304,7 @@
         </is>
       </c>
       <c r="G248" s="7" t="n">
-        <v>43644</v>
+        <v>43553</v>
       </c>
       <c r="H248" s="6" t="n">
         <v>405002</v>
@@ -15323,33 +15315,33 @@
         </is>
       </c>
       <c r="J248" s="6" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="K248" s="6" t="n"/>
       <c r="L248" s="7" t="n">
-        <v>43657</v>
+        <v>43567</v>
       </c>
       <c r="M248" s="6" t="n"/>
       <c r="N248" s="6" t="n"/>
       <c r="O248" s="7" t="n">
-        <v>43661</v>
+        <v>43571</v>
       </c>
       <c r="P248" s="7" t="n">
-        <v>43655</v>
+        <v>43565</v>
       </c>
       <c r="Q248" s="6" t="n"/>
       <c r="R248" s="7" t="n">
-        <v>43657</v>
+        <v>43567</v>
       </c>
       <c r="S248" s="7" t="n">
-        <v>43661</v>
+        <v>43571</v>
       </c>
       <c r="T248" s="6" t="n"/>
       <c r="U248" s="6" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="5" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B249" s="6" t="inlineStr">
         <is>
@@ -15362,7 +15354,7 @@
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>43754</v>
+        <v>43655</v>
       </c>
       <c r="E249" s="6" t="n">
         <v>404001</v>
@@ -15373,7 +15365,7 @@
         </is>
       </c>
       <c r="G249" s="7" t="n">
-        <v>43738</v>
+        <v>43644</v>
       </c>
       <c r="H249" s="6" t="n">
         <v>405002</v>
@@ -15384,33 +15376,33 @@
         </is>
       </c>
       <c r="J249" s="6" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="K249" s="6" t="n"/>
       <c r="L249" s="7" t="n">
-        <v>43756</v>
+        <v>43657</v>
       </c>
       <c r="M249" s="6" t="n"/>
       <c r="N249" s="6" t="n"/>
       <c r="O249" s="7" t="n">
-        <v>43760</v>
+        <v>43661</v>
       </c>
       <c r="P249" s="7" t="n">
-        <v>43754</v>
+        <v>43655</v>
       </c>
       <c r="Q249" s="6" t="n"/>
       <c r="R249" s="7" t="n">
-        <v>43756</v>
+        <v>43657</v>
       </c>
       <c r="S249" s="7" t="n">
-        <v>43760</v>
+        <v>43661</v>
       </c>
       <c r="T249" s="6" t="n"/>
       <c r="U249" s="6" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="5" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B250" s="6" t="inlineStr">
         <is>
@@ -15423,7 +15415,7 @@
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>43840</v>
+        <v>43754</v>
       </c>
       <c r="E250" s="6" t="n">
         <v>404001</v>
@@ -15434,7 +15426,7 @@
         </is>
       </c>
       <c r="G250" s="7" t="n">
-        <v>43830</v>
+        <v>43738</v>
       </c>
       <c r="H250" s="6" t="n">
         <v>405002</v>
@@ -15445,33 +15437,33 @@
         </is>
       </c>
       <c r="J250" s="6" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="K250" s="6" t="n"/>
       <c r="L250" s="7" t="n">
-        <v>43844</v>
+        <v>43756</v>
       </c>
       <c r="M250" s="6" t="n"/>
       <c r="N250" s="6" t="n"/>
       <c r="O250" s="7" t="n">
-        <v>43846</v>
+        <v>43760</v>
       </c>
       <c r="P250" s="7" t="n">
-        <v>43840</v>
+        <v>43754</v>
       </c>
       <c r="Q250" s="6" t="n"/>
       <c r="R250" s="7" t="n">
-        <v>43844</v>
+        <v>43756</v>
       </c>
       <c r="S250" s="7" t="n">
-        <v>43846</v>
+        <v>43760</v>
       </c>
       <c r="T250" s="6" t="n"/>
       <c r="U250" s="6" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="5" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251" s="6" t="inlineStr">
         <is>
@@ -15484,7 +15476,7 @@
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>43931</v>
+        <v>43840</v>
       </c>
       <c r="E251" s="6" t="n">
         <v>404001</v>
@@ -15495,7 +15487,7 @@
         </is>
       </c>
       <c r="G251" s="7" t="n">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="H251" s="6" t="n">
         <v>405002</v>
@@ -15506,33 +15498,33 @@
         </is>
       </c>
       <c r="J251" s="6" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="K251" s="6" t="n"/>
       <c r="L251" s="7" t="n">
-        <v>43935</v>
+        <v>43844</v>
       </c>
       <c r="M251" s="6" t="n"/>
       <c r="N251" s="6" t="n"/>
       <c r="O251" s="7" t="n">
-        <v>43937</v>
+        <v>43846</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>43931</v>
+        <v>43840</v>
       </c>
       <c r="Q251" s="6" t="n"/>
       <c r="R251" s="7" t="n">
-        <v>43935</v>
+        <v>43844</v>
       </c>
       <c r="S251" s="7" t="n">
-        <v>43937</v>
+        <v>43846</v>
       </c>
       <c r="T251" s="6" t="n"/>
       <c r="U251" s="6" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="5" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252" s="6" t="inlineStr">
         <is>
@@ -15545,7 +15537,7 @@
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>44021</v>
+        <v>43931</v>
       </c>
       <c r="E252" s="6" t="n">
         <v>404001</v>
@@ -15556,7 +15548,7 @@
         </is>
       </c>
       <c r="G252" s="7" t="n">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="H252" s="6" t="n">
         <v>405002</v>
@@ -15567,46 +15559,46 @@
         </is>
       </c>
       <c r="J252" s="6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K252" s="6" t="n"/>
       <c r="L252" s="7" t="n">
-        <v>44025</v>
+        <v>43935</v>
       </c>
       <c r="M252" s="6" t="n"/>
       <c r="N252" s="6" t="n"/>
       <c r="O252" s="7" t="n">
-        <v>44027</v>
+        <v>43937</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>44021</v>
+        <v>43931</v>
       </c>
       <c r="Q252" s="6" t="n"/>
       <c r="R252" s="7" t="n">
-        <v>44025</v>
+        <v>43935</v>
       </c>
       <c r="S252" s="7" t="n">
-        <v>44027</v>
+        <v>43937</v>
       </c>
       <c r="T252" s="6" t="n"/>
       <c r="U252" s="6" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="5" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B253" s="6" t="inlineStr">
         <is>
-          <t>519723</t>
+          <t>519718</t>
         </is>
       </c>
       <c r="C253" s="6" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>41564</v>
+        <v>44021</v>
       </c>
       <c r="E253" s="6" t="n">
         <v>404001</v>
@@ -15617,7 +15609,7 @@
         </is>
       </c>
       <c r="G253" s="7" t="n">
-        <v>41547</v>
+        <v>44012</v>
       </c>
       <c r="H253" s="6" t="n">
         <v>405002</v>
@@ -15628,35 +15620,33 @@
         </is>
       </c>
       <c r="J253" s="6" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="K253" s="6" t="n"/>
       <c r="L253" s="7" t="n">
-        <v>41563</v>
-      </c>
-      <c r="M253" s="7" t="n">
-        <v>41563</v>
-      </c>
+        <v>44025</v>
+      </c>
+      <c r="M253" s="6" t="n"/>
       <c r="N253" s="6" t="n"/>
       <c r="O253" s="7" t="n">
-        <v>41565</v>
+        <v>44027</v>
       </c>
       <c r="P253" s="7" t="n">
-        <v>41564</v>
+        <v>44021</v>
       </c>
       <c r="Q253" s="6" t="n"/>
       <c r="R253" s="7" t="n">
-        <v>41563</v>
+        <v>44025</v>
       </c>
       <c r="S253" s="7" t="n">
-        <v>41565</v>
+        <v>44027</v>
       </c>
       <c r="T253" s="6" t="n"/>
       <c r="U253" s="6" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="5" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B254" s="6" t="inlineStr">
         <is>
@@ -15669,7 +15659,7 @@
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>41827</v>
+        <v>41564</v>
       </c>
       <c r="E254" s="6" t="n">
         <v>404001</v>
@@ -15680,7 +15670,7 @@
         </is>
       </c>
       <c r="G254" s="7" t="n">
-        <v>41820</v>
+        <v>41547</v>
       </c>
       <c r="H254" s="6" t="n">
         <v>405002</v>
@@ -15691,35 +15681,35 @@
         </is>
       </c>
       <c r="J254" s="6" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="K254" s="6" t="n"/>
       <c r="L254" s="7" t="n">
-        <v>41829</v>
+        <v>41563</v>
       </c>
       <c r="M254" s="7" t="n">
-        <v>41829</v>
+        <v>41563</v>
       </c>
       <c r="N254" s="6" t="n"/>
       <c r="O254" s="7" t="n">
-        <v>41831</v>
+        <v>41565</v>
       </c>
       <c r="P254" s="7" t="n">
-        <v>41827</v>
+        <v>41564</v>
       </c>
       <c r="Q254" s="6" t="n"/>
       <c r="R254" s="7" t="n">
-        <v>41829</v>
+        <v>41563</v>
       </c>
       <c r="S254" s="7" t="n">
-        <v>41831</v>
+        <v>41565</v>
       </c>
       <c r="T254" s="6" t="n"/>
       <c r="U254" s="6" t="n"/>
     </row>
     <row r="255">
       <c r="A255" s="5" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B255" s="6" t="inlineStr">
         <is>
@@ -15732,7 +15722,7 @@
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>41926</v>
+        <v>41827</v>
       </c>
       <c r="E255" s="6" t="n">
         <v>404001</v>
@@ -15743,7 +15733,7 @@
         </is>
       </c>
       <c r="G255" s="7" t="n">
-        <v>41912</v>
+        <v>41820</v>
       </c>
       <c r="H255" s="6" t="n">
         <v>405002</v>
@@ -15754,35 +15744,35 @@
         </is>
       </c>
       <c r="J255" s="6" t="n">
-        <v>0.025</v>
+        <v>0.014</v>
       </c>
       <c r="K255" s="6" t="n"/>
       <c r="L255" s="7" t="n">
-        <v>41928</v>
+        <v>41829</v>
       </c>
       <c r="M255" s="7" t="n">
-        <v>41928</v>
+        <v>41829</v>
       </c>
       <c r="N255" s="6" t="n"/>
       <c r="O255" s="7" t="n">
-        <v>41932</v>
+        <v>41831</v>
       </c>
       <c r="P255" s="7" t="n">
-        <v>41926</v>
+        <v>41827</v>
       </c>
       <c r="Q255" s="6" t="n"/>
       <c r="R255" s="7" t="n">
-        <v>41928</v>
+        <v>41829</v>
       </c>
       <c r="S255" s="7" t="n">
-        <v>41932</v>
+        <v>41831</v>
       </c>
       <c r="T255" s="6" t="n"/>
       <c r="U255" s="6" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="5" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="6" t="inlineStr">
         <is>
@@ -15795,7 +15785,7 @@
         </is>
       </c>
       <c r="D256" s="7" t="n">
-        <v>42018</v>
+        <v>41926</v>
       </c>
       <c r="E256" s="6" t="n">
         <v>404001</v>
@@ -15806,7 +15796,7 @@
         </is>
       </c>
       <c r="G256" s="7" t="n">
-        <v>42004</v>
+        <v>41912</v>
       </c>
       <c r="H256" s="6" t="n">
         <v>405002</v>
@@ -15817,35 +15807,35 @@
         </is>
       </c>
       <c r="J256" s="6" t="n">
-        <v>0.017</v>
+        <v>0.025</v>
       </c>
       <c r="K256" s="6" t="n"/>
       <c r="L256" s="7" t="n">
-        <v>42024</v>
+        <v>41928</v>
       </c>
       <c r="M256" s="7" t="n">
-        <v>42024</v>
+        <v>41928</v>
       </c>
       <c r="N256" s="6" t="n"/>
       <c r="O256" s="7" t="n">
-        <v>42026</v>
+        <v>41932</v>
       </c>
       <c r="P256" s="7" t="n">
-        <v>42018</v>
+        <v>41926</v>
       </c>
       <c r="Q256" s="6" t="n"/>
       <c r="R256" s="7" t="n">
-        <v>42024</v>
+        <v>41928</v>
       </c>
       <c r="S256" s="7" t="n">
-        <v>42026</v>
+        <v>41932</v>
       </c>
       <c r="T256" s="6" t="n"/>
       <c r="U256" s="6" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="5" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="6" t="inlineStr">
         <is>
@@ -15858,7 +15848,7 @@
         </is>
       </c>
       <c r="D257" s="7" t="n">
-        <v>42104</v>
+        <v>42018</v>
       </c>
       <c r="E257" s="6" t="n">
         <v>404001</v>
@@ -15869,7 +15859,7 @@
         </is>
       </c>
       <c r="G257" s="7" t="n">
-        <v>42094</v>
+        <v>42004</v>
       </c>
       <c r="H257" s="6" t="n">
         <v>405002</v>
@@ -15880,35 +15870,35 @@
         </is>
       </c>
       <c r="J257" s="6" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="K257" s="6" t="n"/>
       <c r="L257" s="7" t="n">
-        <v>42108</v>
+        <v>42024</v>
       </c>
       <c r="M257" s="7" t="n">
-        <v>42108</v>
+        <v>42024</v>
       </c>
       <c r="N257" s="6" t="n"/>
       <c r="O257" s="7" t="n">
-        <v>42110</v>
+        <v>42026</v>
       </c>
       <c r="P257" s="7" t="n">
-        <v>42104</v>
+        <v>42018</v>
       </c>
       <c r="Q257" s="6" t="n"/>
       <c r="R257" s="7" t="n">
-        <v>42108</v>
+        <v>42024</v>
       </c>
       <c r="S257" s="7" t="n">
-        <v>42110</v>
+        <v>42026</v>
       </c>
       <c r="T257" s="6" t="n"/>
       <c r="U257" s="6" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="5" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B258" s="6" t="inlineStr">
         <is>
@@ -15921,7 +15911,7 @@
         </is>
       </c>
       <c r="D258" s="7" t="n">
-        <v>42194</v>
+        <v>42104</v>
       </c>
       <c r="E258" s="6" t="n">
         <v>404001</v>
@@ -15932,7 +15922,7 @@
         </is>
       </c>
       <c r="G258" s="7" t="n">
-        <v>42185</v>
+        <v>42094</v>
       </c>
       <c r="H258" s="6" t="n">
         <v>405002</v>
@@ -15943,35 +15933,35 @@
         </is>
       </c>
       <c r="J258" s="6" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="K258" s="6" t="n"/>
       <c r="L258" s="7" t="n">
-        <v>42198</v>
+        <v>42108</v>
       </c>
       <c r="M258" s="7" t="n">
-        <v>42198</v>
+        <v>42108</v>
       </c>
       <c r="N258" s="6" t="n"/>
       <c r="O258" s="7" t="n">
-        <v>42200</v>
+        <v>42110</v>
       </c>
       <c r="P258" s="7" t="n">
-        <v>42194</v>
+        <v>42104</v>
       </c>
       <c r="Q258" s="6" t="n"/>
       <c r="R258" s="7" t="n">
-        <v>42198</v>
+        <v>42108</v>
       </c>
       <c r="S258" s="7" t="n">
-        <v>42200</v>
+        <v>42110</v>
       </c>
       <c r="T258" s="6" t="n"/>
       <c r="U258" s="6" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="5" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B259" s="6" t="inlineStr">
         <is>
@@ -15984,7 +15974,7 @@
         </is>
       </c>
       <c r="D259" s="7" t="n">
-        <v>42293</v>
+        <v>42194</v>
       </c>
       <c r="E259" s="6" t="n">
         <v>404001</v>
@@ -15995,7 +15985,7 @@
         </is>
       </c>
       <c r="G259" s="7" t="n">
-        <v>42277</v>
+        <v>42185</v>
       </c>
       <c r="H259" s="6" t="n">
         <v>405002</v>
@@ -16010,31 +16000,31 @@
       </c>
       <c r="K259" s="6" t="n"/>
       <c r="L259" s="7" t="n">
-        <v>42297</v>
+        <v>42198</v>
       </c>
       <c r="M259" s="7" t="n">
-        <v>42297</v>
+        <v>42198</v>
       </c>
       <c r="N259" s="6" t="n"/>
       <c r="O259" s="7" t="n">
-        <v>42299</v>
+        <v>42200</v>
       </c>
       <c r="P259" s="7" t="n">
-        <v>42293</v>
+        <v>42194</v>
       </c>
       <c r="Q259" s="6" t="n"/>
       <c r="R259" s="7" t="n">
-        <v>42297</v>
+        <v>42198</v>
       </c>
       <c r="S259" s="7" t="n">
-        <v>42299</v>
+        <v>42200</v>
       </c>
       <c r="T259" s="6" t="n"/>
       <c r="U259" s="6" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="5" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260" s="6" t="inlineStr">
         <is>
@@ -16047,7 +16037,7 @@
         </is>
       </c>
       <c r="D260" s="7" t="n">
-        <v>42380</v>
+        <v>42293</v>
       </c>
       <c r="E260" s="6" t="n">
         <v>404001</v>
@@ -16058,7 +16048,7 @@
         </is>
       </c>
       <c r="G260" s="7" t="n">
-        <v>42369</v>
+        <v>42277</v>
       </c>
       <c r="H260" s="6" t="n">
         <v>405002</v>
@@ -16069,35 +16059,35 @@
         </is>
       </c>
       <c r="J260" s="6" t="n">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="K260" s="6" t="n"/>
       <c r="L260" s="7" t="n">
-        <v>42383</v>
+        <v>42297</v>
       </c>
       <c r="M260" s="7" t="n">
-        <v>42383</v>
+        <v>42297</v>
       </c>
       <c r="N260" s="6" t="n"/>
       <c r="O260" s="7" t="n">
-        <v>42387</v>
+        <v>42299</v>
       </c>
       <c r="P260" s="7" t="n">
-        <v>42380</v>
+        <v>42293</v>
       </c>
       <c r="Q260" s="6" t="n"/>
       <c r="R260" s="7" t="n">
-        <v>42383</v>
+        <v>42297</v>
       </c>
       <c r="S260" s="7" t="n">
-        <v>42387</v>
+        <v>42299</v>
       </c>
       <c r="T260" s="6" t="n"/>
       <c r="U260" s="6" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="5" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261" s="6" t="inlineStr">
         <is>
@@ -16110,7 +16100,7 @@
         </is>
       </c>
       <c r="D261" s="7" t="n">
-        <v>42468</v>
+        <v>42380</v>
       </c>
       <c r="E261" s="6" t="n">
         <v>404001</v>
@@ -16121,7 +16111,7 @@
         </is>
       </c>
       <c r="G261" s="7" t="n">
-        <v>42460</v>
+        <v>42369</v>
       </c>
       <c r="H261" s="6" t="n">
         <v>405002</v>
@@ -16132,35 +16122,35 @@
         </is>
       </c>
       <c r="J261" s="6" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K261" s="6" t="n"/>
       <c r="L261" s="7" t="n">
-        <v>42472</v>
+        <v>42383</v>
       </c>
       <c r="M261" s="7" t="n">
-        <v>42472</v>
+        <v>42383</v>
       </c>
       <c r="N261" s="6" t="n"/>
       <c r="O261" s="7" t="n">
-        <v>42474</v>
+        <v>42387</v>
       </c>
       <c r="P261" s="7" t="n">
-        <v>42468</v>
+        <v>42380</v>
       </c>
       <c r="Q261" s="6" t="n"/>
       <c r="R261" s="7" t="n">
-        <v>42472</v>
+        <v>42383</v>
       </c>
       <c r="S261" s="7" t="n">
-        <v>42474</v>
+        <v>42387</v>
       </c>
       <c r="T261" s="6" t="n"/>
       <c r="U261" s="6" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="5" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="6" t="inlineStr">
         <is>
@@ -16173,7 +16163,7 @@
         </is>
       </c>
       <c r="D262" s="7" t="n">
-        <v>42559</v>
+        <v>42468</v>
       </c>
       <c r="E262" s="6" t="n">
         <v>404001</v>
@@ -16184,7 +16174,7 @@
         </is>
       </c>
       <c r="G262" s="7" t="n">
-        <v>42551</v>
+        <v>42460</v>
       </c>
       <c r="H262" s="6" t="n">
         <v>405002</v>
@@ -16195,35 +16185,35 @@
         </is>
       </c>
       <c r="J262" s="6" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K262" s="6" t="n"/>
       <c r="L262" s="7" t="n">
-        <v>42563</v>
+        <v>42472</v>
       </c>
       <c r="M262" s="7" t="n">
-        <v>42563</v>
+        <v>42472</v>
       </c>
       <c r="N262" s="6" t="n"/>
       <c r="O262" s="7" t="n">
-        <v>42565</v>
+        <v>42474</v>
       </c>
       <c r="P262" s="7" t="n">
-        <v>42559</v>
+        <v>42468</v>
       </c>
       <c r="Q262" s="6" t="n"/>
       <c r="R262" s="7" t="n">
-        <v>42563</v>
+        <v>42472</v>
       </c>
       <c r="S262" s="7" t="n">
-        <v>42565</v>
+        <v>42474</v>
       </c>
       <c r="T262" s="6" t="n"/>
       <c r="U262" s="6" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="5" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263" s="6" t="inlineStr">
         <is>
@@ -16236,7 +16226,7 @@
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>42660</v>
+        <v>42559</v>
       </c>
       <c r="E263" s="6" t="n">
         <v>404001</v>
@@ -16247,7 +16237,7 @@
         </is>
       </c>
       <c r="G263" s="7" t="n">
-        <v>42643</v>
+        <v>42551</v>
       </c>
       <c r="H263" s="6" t="n">
         <v>405002</v>
@@ -16258,35 +16248,35 @@
         </is>
       </c>
       <c r="J263" s="6" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="K263" s="6" t="n"/>
       <c r="L263" s="7" t="n">
-        <v>42662</v>
+        <v>42563</v>
       </c>
       <c r="M263" s="7" t="n">
-        <v>42662</v>
+        <v>42563</v>
       </c>
       <c r="N263" s="6" t="n"/>
       <c r="O263" s="7" t="n">
-        <v>42664</v>
+        <v>42565</v>
       </c>
       <c r="P263" s="7" t="n">
-        <v>42660</v>
+        <v>42559</v>
       </c>
       <c r="Q263" s="6" t="n"/>
       <c r="R263" s="7" t="n">
-        <v>42662</v>
+        <v>42563</v>
       </c>
       <c r="S263" s="7" t="n">
-        <v>42664</v>
+        <v>42565</v>
       </c>
       <c r="T263" s="6" t="n"/>
       <c r="U263" s="6" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="5" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" s="6" t="inlineStr">
         <is>
@@ -16299,7 +16289,7 @@
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>42747</v>
+        <v>42660</v>
       </c>
       <c r="E264" s="6" t="n">
         <v>404001</v>
@@ -16310,7 +16300,7 @@
         </is>
       </c>
       <c r="G264" s="7" t="n">
-        <v>42734</v>
+        <v>42643</v>
       </c>
       <c r="H264" s="6" t="n">
         <v>405002</v>
@@ -16325,31 +16315,31 @@
       </c>
       <c r="K264" s="6" t="n"/>
       <c r="L264" s="7" t="n">
-        <v>42751</v>
+        <v>42662</v>
       </c>
       <c r="M264" s="7" t="n">
-        <v>42751</v>
+        <v>42662</v>
       </c>
       <c r="N264" s="6" t="n"/>
       <c r="O264" s="7" t="n">
-        <v>42753</v>
+        <v>42664</v>
       </c>
       <c r="P264" s="7" t="n">
-        <v>42747</v>
+        <v>42660</v>
       </c>
       <c r="Q264" s="6" t="n"/>
       <c r="R264" s="7" t="n">
-        <v>42751</v>
+        <v>42662</v>
       </c>
       <c r="S264" s="7" t="n">
-        <v>42753</v>
+        <v>42664</v>
       </c>
       <c r="T264" s="6" t="n"/>
       <c r="U264" s="6" t="n"/>
     </row>
     <row r="265">
       <c r="A265" s="5" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265" s="6" t="inlineStr">
         <is>
@@ -16362,7 +16352,7 @@
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>43025</v>
+        <v>42747</v>
       </c>
       <c r="E265" s="6" t="n">
         <v>404001</v>
@@ -16373,7 +16363,7 @@
         </is>
       </c>
       <c r="G265" s="7" t="n">
-        <v>43007</v>
+        <v>42734</v>
       </c>
       <c r="H265" s="6" t="n">
         <v>405002</v>
@@ -16384,35 +16374,35 @@
         </is>
       </c>
       <c r="J265" s="6" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="K265" s="6" t="n"/>
       <c r="L265" s="7" t="n">
-        <v>43027</v>
+        <v>42751</v>
       </c>
       <c r="M265" s="7" t="n">
-        <v>43027</v>
+        <v>42751</v>
       </c>
       <c r="N265" s="6" t="n"/>
       <c r="O265" s="7" t="n">
-        <v>43031</v>
+        <v>42753</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>43025</v>
+        <v>42747</v>
       </c>
       <c r="Q265" s="6" t="n"/>
       <c r="R265" s="7" t="n">
-        <v>43027</v>
+        <v>42751</v>
       </c>
       <c r="S265" s="7" t="n">
-        <v>43031</v>
+        <v>42753</v>
       </c>
       <c r="T265" s="6" t="n"/>
       <c r="U265" s="6" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="5" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="6" t="inlineStr">
         <is>
@@ -16425,7 +16415,7 @@
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>43110</v>
+        <v>43025</v>
       </c>
       <c r="E266" s="6" t="n">
         <v>404001</v>
@@ -16436,7 +16426,7 @@
         </is>
       </c>
       <c r="G266" s="7" t="n">
-        <v>43100</v>
+        <v>43007</v>
       </c>
       <c r="H266" s="6" t="n">
         <v>405002</v>
@@ -16447,35 +16437,35 @@
         </is>
       </c>
       <c r="J266" s="6" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="K266" s="6" t="n"/>
       <c r="L266" s="7" t="n">
-        <v>43112</v>
+        <v>43027</v>
       </c>
       <c r="M266" s="7" t="n">
-        <v>43112</v>
+        <v>43027</v>
       </c>
       <c r="N266" s="6" t="n"/>
       <c r="O266" s="7" t="n">
-        <v>43116</v>
+        <v>43031</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>43110</v>
+        <v>43025</v>
       </c>
       <c r="Q266" s="6" t="n"/>
       <c r="R266" s="7" t="n">
-        <v>43112</v>
+        <v>43027</v>
       </c>
       <c r="S266" s="7" t="n">
-        <v>43116</v>
+        <v>43031</v>
       </c>
       <c r="T266" s="6" t="n"/>
       <c r="U266" s="6" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="5" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267" s="6" t="inlineStr">
         <is>
@@ -16488,7 +16478,7 @@
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>43202</v>
+        <v>43110</v>
       </c>
       <c r="E267" s="6" t="n">
         <v>404001</v>
@@ -16499,7 +16489,7 @@
         </is>
       </c>
       <c r="G267" s="7" t="n">
-        <v>43189</v>
+        <v>43100</v>
       </c>
       <c r="H267" s="6" t="n">
         <v>405002</v>
@@ -16510,35 +16500,35 @@
         </is>
       </c>
       <c r="J267" s="6" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="K267" s="6" t="n"/>
       <c r="L267" s="7" t="n">
-        <v>43206</v>
+        <v>43112</v>
       </c>
       <c r="M267" s="7" t="n">
-        <v>43206</v>
+        <v>43112</v>
       </c>
       <c r="N267" s="6" t="n"/>
       <c r="O267" s="7" t="n">
-        <v>43208</v>
+        <v>43116</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>43202</v>
+        <v>43110</v>
       </c>
       <c r="Q267" s="6" t="n"/>
       <c r="R267" s="7" t="n">
-        <v>43206</v>
+        <v>43112</v>
       </c>
       <c r="S267" s="7" t="n">
-        <v>43208</v>
+        <v>43116</v>
       </c>
       <c r="T267" s="6" t="n"/>
       <c r="U267" s="6" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="5" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268" s="6" t="inlineStr">
         <is>
@@ -16551,7 +16541,7 @@
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>43291</v>
+        <v>43202</v>
       </c>
       <c r="E268" s="6" t="n">
         <v>404001</v>
@@ -16562,7 +16552,7 @@
         </is>
       </c>
       <c r="G268" s="7" t="n">
-        <v>43281</v>
+        <v>43189</v>
       </c>
       <c r="H268" s="6" t="n">
         <v>405002</v>
@@ -16577,31 +16567,31 @@
       </c>
       <c r="K268" s="6" t="n"/>
       <c r="L268" s="7" t="n">
-        <v>43293</v>
+        <v>43206</v>
       </c>
       <c r="M268" s="7" t="n">
-        <v>43293</v>
+        <v>43206</v>
       </c>
       <c r="N268" s="6" t="n"/>
       <c r="O268" s="7" t="n">
-        <v>43297</v>
+        <v>43208</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>43291</v>
+        <v>43202</v>
       </c>
       <c r="Q268" s="6" t="n"/>
       <c r="R268" s="7" t="n">
-        <v>43293</v>
+        <v>43206</v>
       </c>
       <c r="S268" s="7" t="n">
-        <v>43297</v>
+        <v>43208</v>
       </c>
       <c r="T268" s="6" t="n"/>
       <c r="U268" s="6" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="5" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269" s="6" t="inlineStr">
         <is>
@@ -16614,7 +16604,7 @@
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>43389</v>
+        <v>43291</v>
       </c>
       <c r="E269" s="6" t="n">
         <v>404001</v>
@@ -16625,7 +16615,7 @@
         </is>
       </c>
       <c r="G269" s="7" t="n">
-        <v>43373</v>
+        <v>43281</v>
       </c>
       <c r="H269" s="6" t="n">
         <v>405002</v>
@@ -16636,33 +16626,35 @@
         </is>
       </c>
       <c r="J269" s="6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K269" s="6" t="n"/>
       <c r="L269" s="7" t="n">
-        <v>43391</v>
-      </c>
-      <c r="M269" s="6" t="n"/>
+        <v>43293</v>
+      </c>
+      <c r="M269" s="7" t="n">
+        <v>43293</v>
+      </c>
       <c r="N269" s="6" t="n"/>
       <c r="O269" s="7" t="n">
-        <v>43395</v>
+        <v>43297</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>43389</v>
+        <v>43291</v>
       </c>
       <c r="Q269" s="6" t="n"/>
       <c r="R269" s="7" t="n">
-        <v>43391</v>
+        <v>43293</v>
       </c>
       <c r="S269" s="7" t="n">
-        <v>43395</v>
+        <v>43297</v>
       </c>
       <c r="T269" s="6" t="n"/>
       <c r="U269" s="6" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="5" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="6" t="inlineStr">
         <is>
@@ -16675,7 +16667,7 @@
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>43475</v>
+        <v>43389</v>
       </c>
       <c r="E270" s="6" t="n">
         <v>404001</v>
@@ -16686,7 +16678,7 @@
         </is>
       </c>
       <c r="G270" s="7" t="n">
-        <v>43462</v>
+        <v>43373</v>
       </c>
       <c r="H270" s="6" t="n">
         <v>405002</v>
@@ -16697,33 +16689,33 @@
         </is>
       </c>
       <c r="J270" s="6" t="n">
-        <v>0.011</v>
+        <v>0.02</v>
       </c>
       <c r="K270" s="6" t="n"/>
       <c r="L270" s="7" t="n">
-        <v>43479</v>
+        <v>43391</v>
       </c>
       <c r="M270" s="6" t="n"/>
       <c r="N270" s="6" t="n"/>
       <c r="O270" s="7" t="n">
-        <v>43481</v>
+        <v>43395</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>43475</v>
+        <v>43389</v>
       </c>
       <c r="Q270" s="6" t="n"/>
       <c r="R270" s="7" t="n">
-        <v>43479</v>
+        <v>43391</v>
       </c>
       <c r="S270" s="7" t="n">
-        <v>43481</v>
+        <v>43395</v>
       </c>
       <c r="T270" s="6" t="n"/>
       <c r="U270" s="6" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="5" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271" s="6" t="inlineStr">
         <is>
@@ -16736,7 +16728,7 @@
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>43565</v>
+        <v>43475</v>
       </c>
       <c r="E271" s="6" t="n">
         <v>404001</v>
@@ -16747,7 +16739,7 @@
         </is>
       </c>
       <c r="G271" s="7" t="n">
-        <v>43553</v>
+        <v>43462</v>
       </c>
       <c r="H271" s="6" t="n">
         <v>405002</v>
@@ -16762,29 +16754,29 @@
       </c>
       <c r="K271" s="6" t="n"/>
       <c r="L271" s="7" t="n">
-        <v>43567</v>
+        <v>43479</v>
       </c>
       <c r="M271" s="6" t="n"/>
       <c r="N271" s="6" t="n"/>
       <c r="O271" s="7" t="n">
-        <v>43571</v>
+        <v>43481</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>43565</v>
+        <v>43475</v>
       </c>
       <c r="Q271" s="6" t="n"/>
       <c r="R271" s="7" t="n">
-        <v>43567</v>
+        <v>43479</v>
       </c>
       <c r="S271" s="7" t="n">
-        <v>43571</v>
+        <v>43481</v>
       </c>
       <c r="T271" s="6" t="n"/>
       <c r="U271" s="6" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="5" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272" s="6" t="inlineStr">
         <is>
@@ -16797,7 +16789,7 @@
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>43655</v>
+        <v>43565</v>
       </c>
       <c r="E272" s="6" t="n">
         <v>404001</v>
@@ -16808,7 +16800,7 @@
         </is>
       </c>
       <c r="G272" s="7" t="n">
-        <v>43644</v>
+        <v>43553</v>
       </c>
       <c r="H272" s="6" t="n">
         <v>405002</v>
@@ -16819,33 +16811,33 @@
         </is>
       </c>
       <c r="J272" s="6" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="K272" s="6" t="n"/>
       <c r="L272" s="7" t="n">
-        <v>43657</v>
+        <v>43567</v>
       </c>
       <c r="M272" s="6" t="n"/>
       <c r="N272" s="6" t="n"/>
       <c r="O272" s="7" t="n">
-        <v>43661</v>
+        <v>43571</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>43655</v>
+        <v>43565</v>
       </c>
       <c r="Q272" s="6" t="n"/>
       <c r="R272" s="7" t="n">
-        <v>43657</v>
+        <v>43567</v>
       </c>
       <c r="S272" s="7" t="n">
-        <v>43661</v>
+        <v>43571</v>
       </c>
       <c r="T272" s="6" t="n"/>
       <c r="U272" s="6" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="5" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" s="6" t="inlineStr">
         <is>
@@ -16858,7 +16850,7 @@
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>43754</v>
+        <v>43655</v>
       </c>
       <c r="E273" s="6" t="n">
         <v>404001</v>
@@ -16869,7 +16861,7 @@
         </is>
       </c>
       <c r="G273" s="7" t="n">
-        <v>43738</v>
+        <v>43644</v>
       </c>
       <c r="H273" s="6" t="n">
         <v>405002</v>
@@ -16880,33 +16872,33 @@
         </is>
       </c>
       <c r="J273" s="6" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="K273" s="6" t="n"/>
       <c r="L273" s="7" t="n">
-        <v>43756</v>
+        <v>43657</v>
       </c>
       <c r="M273" s="6" t="n"/>
       <c r="N273" s="6" t="n"/>
       <c r="O273" s="7" t="n">
-        <v>43760</v>
+        <v>43661</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>43754</v>
+        <v>43655</v>
       </c>
       <c r="Q273" s="6" t="n"/>
       <c r="R273" s="7" t="n">
-        <v>43756</v>
+        <v>43657</v>
       </c>
       <c r="S273" s="7" t="n">
-        <v>43760</v>
+        <v>43661</v>
       </c>
       <c r="T273" s="6" t="n"/>
       <c r="U273" s="6" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="5" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274" s="6" t="inlineStr">
         <is>
@@ -16919,7 +16911,7 @@
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>43840</v>
+        <v>43754</v>
       </c>
       <c r="E274" s="6" t="n">
         <v>404001</v>
@@ -16930,7 +16922,7 @@
         </is>
       </c>
       <c r="G274" s="7" t="n">
-        <v>43830</v>
+        <v>43738</v>
       </c>
       <c r="H274" s="6" t="n">
         <v>405002</v>
@@ -16941,33 +16933,33 @@
         </is>
       </c>
       <c r="J274" s="6" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K274" s="6" t="n"/>
       <c r="L274" s="7" t="n">
-        <v>43844</v>
+        <v>43756</v>
       </c>
       <c r="M274" s="6" t="n"/>
       <c r="N274" s="6" t="n"/>
       <c r="O274" s="7" t="n">
-        <v>43846</v>
+        <v>43760</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>43840</v>
+        <v>43754</v>
       </c>
       <c r="Q274" s="6" t="n"/>
       <c r="R274" s="7" t="n">
-        <v>43844</v>
+        <v>43756</v>
       </c>
       <c r="S274" s="7" t="n">
-        <v>43846</v>
+        <v>43760</v>
       </c>
       <c r="T274" s="6" t="n"/>
       <c r="U274" s="6" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="5" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="6" t="inlineStr">
         <is>
@@ -16980,7 +16972,7 @@
         </is>
       </c>
       <c r="D275" s="7" t="n">
-        <v>43931</v>
+        <v>43840</v>
       </c>
       <c r="E275" s="6" t="n">
         <v>404001</v>
@@ -16991,7 +16983,7 @@
         </is>
       </c>
       <c r="G275" s="7" t="n">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="H275" s="6" t="n">
         <v>405002</v>
@@ -17002,33 +16994,33 @@
         </is>
       </c>
       <c r="J275" s="6" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K275" s="6" t="n"/>
       <c r="L275" s="7" t="n">
-        <v>43935</v>
+        <v>43844</v>
       </c>
       <c r="M275" s="6" t="n"/>
       <c r="N275" s="6" t="n"/>
       <c r="O275" s="7" t="n">
-        <v>43937</v>
+        <v>43846</v>
       </c>
       <c r="P275" s="7" t="n">
-        <v>43931</v>
+        <v>43840</v>
       </c>
       <c r="Q275" s="6" t="n"/>
       <c r="R275" s="7" t="n">
-        <v>43935</v>
+        <v>43844</v>
       </c>
       <c r="S275" s="7" t="n">
-        <v>43937</v>
+        <v>43846</v>
       </c>
       <c r="T275" s="6" t="n"/>
       <c r="U275" s="6" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="5" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276" s="6" t="inlineStr">
         <is>
@@ -17041,7 +17033,7 @@
         </is>
       </c>
       <c r="D276" s="7" t="n">
-        <v>44021</v>
+        <v>43931</v>
       </c>
       <c r="E276" s="6" t="n">
         <v>404001</v>
@@ -17052,7 +17044,7 @@
         </is>
       </c>
       <c r="G276" s="7" t="n">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="H276" s="6" t="n">
         <v>405002</v>
@@ -17063,46 +17055,46 @@
         </is>
       </c>
       <c r="J276" s="6" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="K276" s="6" t="n"/>
       <c r="L276" s="7" t="n">
-        <v>44025</v>
+        <v>43935</v>
       </c>
       <c r="M276" s="6" t="n"/>
       <c r="N276" s="6" t="n"/>
       <c r="O276" s="7" t="n">
-        <v>44027</v>
+        <v>43937</v>
       </c>
       <c r="P276" s="7" t="n">
-        <v>44021</v>
+        <v>43931</v>
       </c>
       <c r="Q276" s="6" t="n"/>
       <c r="R276" s="7" t="n">
-        <v>44025</v>
+        <v>43935</v>
       </c>
       <c r="S276" s="7" t="n">
-        <v>44027</v>
+        <v>43937</v>
       </c>
       <c r="T276" s="6" t="n"/>
       <c r="U276" s="6" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="5" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" s="6" t="inlineStr">
         <is>
-          <t>519738</t>
+          <t>519723</t>
         </is>
       </c>
       <c r="C277" s="6" t="inlineStr">
         <is>
-          <t>交银周期回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="D277" s="7" t="n">
-        <v>41990</v>
+        <v>44021</v>
       </c>
       <c r="E277" s="6" t="n">
         <v>404001</v>
@@ -17113,7 +17105,7 @@
         </is>
       </c>
       <c r="G277" s="7" t="n">
-        <v>41978</v>
+        <v>44012</v>
       </c>
       <c r="H277" s="6" t="n">
         <v>405002</v>
@@ -17124,35 +17116,33 @@
         </is>
       </c>
       <c r="J277" s="6" t="n">
-        <v>0.08</v>
+        <v>0.012</v>
       </c>
       <c r="K277" s="6" t="n"/>
       <c r="L277" s="7" t="n">
-        <v>41992</v>
-      </c>
-      <c r="M277" s="7" t="n">
-        <v>41992</v>
-      </c>
+        <v>44025</v>
+      </c>
+      <c r="M277" s="6" t="n"/>
       <c r="N277" s="6" t="n"/>
       <c r="O277" s="7" t="n">
-        <v>41996</v>
+        <v>44027</v>
       </c>
       <c r="P277" s="7" t="n">
-        <v>41990</v>
+        <v>44021</v>
       </c>
       <c r="Q277" s="6" t="n"/>
       <c r="R277" s="7" t="n">
-        <v>41992</v>
+        <v>44025</v>
       </c>
       <c r="S277" s="7" t="n">
-        <v>41996</v>
+        <v>44027</v>
       </c>
       <c r="T277" s="6" t="n"/>
       <c r="U277" s="6" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="5" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278" s="6" t="inlineStr">
         <is>
@@ -17165,7 +17155,7 @@
         </is>
       </c>
       <c r="D278" s="7" t="n">
-        <v>42067</v>
+        <v>41990</v>
       </c>
       <c r="E278" s="6" t="n">
         <v>404001</v>
@@ -17176,7 +17166,7 @@
         </is>
       </c>
       <c r="G278" s="7" t="n">
-        <v>42051</v>
+        <v>41978</v>
       </c>
       <c r="H278" s="6" t="n">
         <v>405002</v>
@@ -17187,35 +17177,35 @@
         </is>
       </c>
       <c r="J278" s="6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K278" s="6" t="n"/>
       <c r="L278" s="7" t="n">
-        <v>42074</v>
+        <v>41992</v>
       </c>
       <c r="M278" s="7" t="n">
-        <v>42074</v>
+        <v>41992</v>
       </c>
       <c r="N278" s="6" t="n"/>
       <c r="O278" s="7" t="n">
-        <v>42076</v>
+        <v>41996</v>
       </c>
       <c r="P278" s="7" t="n">
-        <v>42067</v>
+        <v>41990</v>
       </c>
       <c r="Q278" s="6" t="n"/>
       <c r="R278" s="7" t="n">
-        <v>42074</v>
+        <v>41992</v>
       </c>
       <c r="S278" s="7" t="n">
-        <v>42076</v>
+        <v>41996</v>
       </c>
       <c r="T278" s="6" t="n"/>
       <c r="U278" s="6" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="5" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" s="6" t="inlineStr">
         <is>
@@ -17228,7 +17218,7 @@
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>42381</v>
+        <v>42067</v>
       </c>
       <c r="E279" s="6" t="n">
         <v>404001</v>
@@ -17239,7 +17229,7 @@
         </is>
       </c>
       <c r="G279" s="7" t="n">
-        <v>42373</v>
+        <v>42051</v>
       </c>
       <c r="H279" s="6" t="n">
         <v>405002</v>
@@ -17250,35 +17240,35 @@
         </is>
       </c>
       <c r="J279" s="6" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="K279" s="6" t="n"/>
       <c r="L279" s="7" t="n">
-        <v>42384</v>
+        <v>42074</v>
       </c>
       <c r="M279" s="7" t="n">
-        <v>42384</v>
+        <v>42074</v>
       </c>
       <c r="N279" s="6" t="n"/>
       <c r="O279" s="7" t="n">
-        <v>42388</v>
+        <v>42076</v>
       </c>
       <c r="P279" s="7" t="n">
-        <v>42381</v>
+        <v>42067</v>
       </c>
       <c r="Q279" s="6" t="n"/>
       <c r="R279" s="7" t="n">
-        <v>42384</v>
+        <v>42074</v>
       </c>
       <c r="S279" s="7" t="n">
-        <v>42388</v>
+        <v>42076</v>
       </c>
       <c r="T279" s="6" t="n"/>
       <c r="U279" s="6" t="n"/>
     </row>
     <row r="280">
       <c r="A280" s="5" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B280" s="6" t="inlineStr">
         <is>
@@ -17291,7 +17281,7 @@
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>42661</v>
+        <v>42381</v>
       </c>
       <c r="E280" s="6" t="n">
         <v>404001</v>
@@ -17302,7 +17292,7 @@
         </is>
       </c>
       <c r="G280" s="7" t="n">
-        <v>42653</v>
+        <v>42373</v>
       </c>
       <c r="H280" s="6" t="n">
         <v>405002</v>
@@ -17313,35 +17303,35 @@
         </is>
       </c>
       <c r="J280" s="6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K280" s="6" t="n"/>
       <c r="L280" s="7" t="n">
-        <v>42663</v>
+        <v>42384</v>
       </c>
       <c r="M280" s="7" t="n">
-        <v>42663</v>
+        <v>42384</v>
       </c>
       <c r="N280" s="6" t="n"/>
       <c r="O280" s="7" t="n">
-        <v>42667</v>
+        <v>42388</v>
       </c>
       <c r="P280" s="7" t="n">
-        <v>42661</v>
+        <v>42381</v>
       </c>
       <c r="Q280" s="6" t="n"/>
       <c r="R280" s="7" t="n">
-        <v>42663</v>
+        <v>42384</v>
       </c>
       <c r="S280" s="7" t="n">
-        <v>42667</v>
+        <v>42388</v>
       </c>
       <c r="T280" s="6" t="n"/>
       <c r="U280" s="6" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="5" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281" s="6" t="inlineStr">
         <is>
@@ -17354,7 +17344,7 @@
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>42748</v>
+        <v>42661</v>
       </c>
       <c r="E281" s="6" t="n">
         <v>404001</v>
@@ -17365,7 +17355,7 @@
         </is>
       </c>
       <c r="G281" s="7" t="n">
-        <v>42738</v>
+        <v>42653</v>
       </c>
       <c r="H281" s="6" t="n">
         <v>405002</v>
@@ -17380,31 +17370,31 @@
       </c>
       <c r="K281" s="6" t="n"/>
       <c r="L281" s="7" t="n">
-        <v>42752</v>
+        <v>42663</v>
       </c>
       <c r="M281" s="7" t="n">
-        <v>42752</v>
+        <v>42663</v>
       </c>
       <c r="N281" s="6" t="n"/>
       <c r="O281" s="7" t="n">
-        <v>42754</v>
+        <v>42667</v>
       </c>
       <c r="P281" s="7" t="n">
-        <v>42748</v>
+        <v>42661</v>
       </c>
       <c r="Q281" s="6" t="n"/>
       <c r="R281" s="7" t="n">
-        <v>42752</v>
+        <v>42663</v>
       </c>
       <c r="S281" s="7" t="n">
-        <v>42754</v>
+        <v>42667</v>
       </c>
       <c r="T281" s="6" t="n"/>
       <c r="U281" s="6" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="5" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282" s="6" t="inlineStr">
         <is>
@@ -17417,7 +17407,7 @@
         </is>
       </c>
       <c r="D282" s="7" t="n">
-        <v>42927</v>
+        <v>42748</v>
       </c>
       <c r="E282" s="6" t="n">
         <v>404001</v>
@@ -17428,7 +17418,7 @@
         </is>
       </c>
       <c r="G282" s="7" t="n">
-        <v>42916</v>
+        <v>42738</v>
       </c>
       <c r="H282" s="6" t="n">
         <v>405002</v>
@@ -17439,35 +17429,35 @@
         </is>
       </c>
       <c r="J282" s="6" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="K282" s="6" t="n"/>
       <c r="L282" s="7" t="n">
-        <v>42929</v>
+        <v>42752</v>
       </c>
       <c r="M282" s="7" t="n">
-        <v>42929</v>
+        <v>42752</v>
       </c>
       <c r="N282" s="6" t="n"/>
       <c r="O282" s="7" t="n">
-        <v>42933</v>
+        <v>42754</v>
       </c>
       <c r="P282" s="7" t="n">
-        <v>42927</v>
+        <v>42748</v>
       </c>
       <c r="Q282" s="6" t="n"/>
       <c r="R282" s="7" t="n">
-        <v>42929</v>
+        <v>42752</v>
       </c>
       <c r="S282" s="7" t="n">
-        <v>42933</v>
+        <v>42754</v>
       </c>
       <c r="T282" s="6" t="n"/>
       <c r="U282" s="6" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="5" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B283" s="6" t="inlineStr">
         <is>
@@ -17480,7 +17470,7 @@
         </is>
       </c>
       <c r="D283" s="7" t="n">
-        <v>43112</v>
+        <v>42927</v>
       </c>
       <c r="E283" s="6" t="n">
         <v>404001</v>
@@ -17491,7 +17481,7 @@
         </is>
       </c>
       <c r="G283" s="7" t="n">
-        <v>43102</v>
+        <v>42916</v>
       </c>
       <c r="H283" s="6" t="n">
         <v>405002</v>
@@ -17502,35 +17492,35 @@
         </is>
       </c>
       <c r="J283" s="6" t="n">
-        <v>0.05</v>
+        <v>0.019</v>
       </c>
       <c r="K283" s="6" t="n"/>
       <c r="L283" s="7" t="n">
-        <v>43116</v>
+        <v>42929</v>
       </c>
       <c r="M283" s="7" t="n">
-        <v>43116</v>
+        <v>42929</v>
       </c>
       <c r="N283" s="6" t="n"/>
       <c r="O283" s="7" t="n">
-        <v>43118</v>
+        <v>42933</v>
       </c>
       <c r="P283" s="7" t="n">
-        <v>43112</v>
+        <v>42927</v>
       </c>
       <c r="Q283" s="6" t="n"/>
       <c r="R283" s="7" t="n">
-        <v>43116</v>
+        <v>42929</v>
       </c>
       <c r="S283" s="7" t="n">
-        <v>43118</v>
+        <v>42933</v>
       </c>
       <c r="T283" s="6" t="n"/>
       <c r="U283" s="6" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="5" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B284" s="6" t="inlineStr">
         <is>
@@ -17543,7 +17533,7 @@
         </is>
       </c>
       <c r="D284" s="7" t="n">
-        <v>43229</v>
+        <v>43112</v>
       </c>
       <c r="E284" s="6" t="n">
         <v>404001</v>
@@ -17554,7 +17544,7 @@
         </is>
       </c>
       <c r="G284" s="7" t="n">
-        <v>43216</v>
+        <v>43102</v>
       </c>
       <c r="H284" s="6" t="n">
         <v>405002</v>
@@ -17565,35 +17555,35 @@
         </is>
       </c>
       <c r="J284" s="6" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="K284" s="6" t="n"/>
       <c r="L284" s="7" t="n">
-        <v>43231</v>
+        <v>43116</v>
       </c>
       <c r="M284" s="7" t="n">
-        <v>43231</v>
+        <v>43116</v>
       </c>
       <c r="N284" s="6" t="n"/>
       <c r="O284" s="7" t="n">
-        <v>43235</v>
+        <v>43118</v>
       </c>
       <c r="P284" s="7" t="n">
-        <v>43229</v>
+        <v>43112</v>
       </c>
       <c r="Q284" s="6" t="n"/>
       <c r="R284" s="7" t="n">
-        <v>43231</v>
+        <v>43116</v>
       </c>
       <c r="S284" s="7" t="n">
-        <v>43235</v>
+        <v>43118</v>
       </c>
       <c r="T284" s="6" t="n"/>
       <c r="U284" s="6" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="5" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285" s="6" t="inlineStr">
         <is>
@@ -17606,7 +17596,7 @@
         </is>
       </c>
       <c r="D285" s="7" t="n">
-        <v>43476</v>
+        <v>43229</v>
       </c>
       <c r="E285" s="6" t="n">
         <v>404001</v>
@@ -17617,7 +17607,7 @@
         </is>
       </c>
       <c r="G285" s="7" t="n">
-        <v>43467</v>
+        <v>43216</v>
       </c>
       <c r="H285" s="6" t="n">
         <v>405002</v>
@@ -17628,33 +17618,35 @@
         </is>
       </c>
       <c r="J285" s="6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K285" s="6" t="n"/>
       <c r="L285" s="7" t="n">
-        <v>43480</v>
-      </c>
-      <c r="M285" s="6" t="n"/>
+        <v>43231</v>
+      </c>
+      <c r="M285" s="7" t="n">
+        <v>43231</v>
+      </c>
       <c r="N285" s="6" t="n"/>
       <c r="O285" s="7" t="n">
-        <v>43482</v>
+        <v>43235</v>
       </c>
       <c r="P285" s="7" t="n">
-        <v>43476</v>
+        <v>43229</v>
       </c>
       <c r="Q285" s="6" t="n"/>
       <c r="R285" s="7" t="n">
-        <v>43480</v>
+        <v>43231</v>
       </c>
       <c r="S285" s="7" t="n">
-        <v>43482</v>
+        <v>43235</v>
       </c>
       <c r="T285" s="6" t="n"/>
       <c r="U285" s="6" t="n"/>
     </row>
     <row r="286">
       <c r="A286" s="5" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B286" s="6" t="inlineStr">
         <is>
@@ -17667,7 +17659,7 @@
         </is>
       </c>
       <c r="D286" s="7" t="n">
-        <v>43556</v>
+        <v>43476</v>
       </c>
       <c r="E286" s="6" t="n">
         <v>404001</v>
@@ -17678,7 +17670,7 @@
         </is>
       </c>
       <c r="G286" s="7" t="n">
-        <v>43545</v>
+        <v>43467</v>
       </c>
       <c r="H286" s="6" t="n">
         <v>405002</v>
@@ -17689,33 +17681,33 @@
         </is>
       </c>
       <c r="J286" s="6" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K286" s="6" t="n"/>
       <c r="L286" s="7" t="n">
-        <v>43558</v>
+        <v>43480</v>
       </c>
       <c r="M286" s="6" t="n"/>
       <c r="N286" s="6" t="n"/>
       <c r="O286" s="7" t="n">
-        <v>43563</v>
+        <v>43482</v>
       </c>
       <c r="P286" s="7" t="n">
-        <v>43556</v>
+        <v>43476</v>
       </c>
       <c r="Q286" s="6" t="n"/>
       <c r="R286" s="7" t="n">
-        <v>43558</v>
+        <v>43480</v>
       </c>
       <c r="S286" s="7" t="n">
-        <v>43563</v>
+        <v>43482</v>
       </c>
       <c r="T286" s="6" t="n"/>
       <c r="U286" s="6" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="5" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287" s="6" t="inlineStr">
         <is>
@@ -17728,7 +17720,7 @@
         </is>
       </c>
       <c r="D287" s="7" t="n">
-        <v>43698</v>
+        <v>43556</v>
       </c>
       <c r="E287" s="6" t="n">
         <v>404001</v>
@@ -17739,7 +17731,7 @@
         </is>
       </c>
       <c r="G287" s="7" t="n">
-        <v>43689</v>
+        <v>43545</v>
       </c>
       <c r="H287" s="6" t="n">
         <v>405002</v>
@@ -17750,33 +17742,33 @@
         </is>
       </c>
       <c r="J287" s="6" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="K287" s="6" t="n"/>
       <c r="L287" s="7" t="n">
-        <v>43700</v>
+        <v>43558</v>
       </c>
       <c r="M287" s="6" t="n"/>
       <c r="N287" s="6" t="n"/>
       <c r="O287" s="7" t="n">
-        <v>43704</v>
+        <v>43563</v>
       </c>
       <c r="P287" s="7" t="n">
-        <v>43698</v>
+        <v>43556</v>
       </c>
       <c r="Q287" s="6" t="n"/>
       <c r="R287" s="7" t="n">
-        <v>43700</v>
+        <v>43558</v>
       </c>
       <c r="S287" s="7" t="n">
-        <v>43704</v>
+        <v>43563</v>
       </c>
       <c r="T287" s="6" t="n"/>
       <c r="U287" s="6" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="5" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288" s="6" t="inlineStr">
         <is>
@@ -17789,7 +17781,7 @@
         </is>
       </c>
       <c r="D288" s="7" t="n">
-        <v>43843</v>
+        <v>43698</v>
       </c>
       <c r="E288" s="6" t="n">
         <v>404001</v>
@@ -17800,7 +17792,7 @@
         </is>
       </c>
       <c r="G288" s="7" t="n">
-        <v>43832</v>
+        <v>43689</v>
       </c>
       <c r="H288" s="6" t="n">
         <v>405002</v>
@@ -17811,33 +17803,33 @@
         </is>
       </c>
       <c r="J288" s="6" t="n">
-        <v>0.032</v>
+        <v>0.02</v>
       </c>
       <c r="K288" s="6" t="n"/>
       <c r="L288" s="7" t="n">
-        <v>43845</v>
+        <v>43700</v>
       </c>
       <c r="M288" s="6" t="n"/>
       <c r="N288" s="6" t="n"/>
       <c r="O288" s="7" t="n">
-        <v>43847</v>
+        <v>43704</v>
       </c>
       <c r="P288" s="7" t="n">
-        <v>43843</v>
+        <v>43698</v>
       </c>
       <c r="Q288" s="6" t="n"/>
       <c r="R288" s="7" t="n">
-        <v>43845</v>
+        <v>43700</v>
       </c>
       <c r="S288" s="7" t="n">
-        <v>43847</v>
+        <v>43704</v>
       </c>
       <c r="T288" s="6" t="n"/>
       <c r="U288" s="6" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="5" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B289" s="6" t="inlineStr">
         <is>
@@ -17850,7 +17842,7 @@
         </is>
       </c>
       <c r="D289" s="7" t="n">
-        <v>43861</v>
+        <v>43843</v>
       </c>
       <c r="E289" s="6" t="n">
         <v>404001</v>
@@ -17861,7 +17853,7 @@
         </is>
       </c>
       <c r="G289" s="7" t="n">
-        <v>43845</v>
+        <v>43832</v>
       </c>
       <c r="H289" s="6" t="n">
         <v>405002</v>
@@ -17872,46 +17864,46 @@
         </is>
       </c>
       <c r="J289" s="6" t="n">
-        <v>0.019</v>
+        <v>0.032</v>
       </c>
       <c r="K289" s="6" t="n"/>
       <c r="L289" s="7" t="n">
-        <v>43865</v>
+        <v>43845</v>
       </c>
       <c r="M289" s="6" t="n"/>
       <c r="N289" s="6" t="n"/>
       <c r="O289" s="7" t="n">
-        <v>43867</v>
+        <v>43847</v>
       </c>
       <c r="P289" s="7" t="n">
-        <v>43861</v>
+        <v>43843</v>
       </c>
       <c r="Q289" s="6" t="n"/>
       <c r="R289" s="7" t="n">
-        <v>43865</v>
+        <v>43845</v>
       </c>
       <c r="S289" s="7" t="n">
-        <v>43867</v>
+        <v>43847</v>
       </c>
       <c r="T289" s="6" t="n"/>
       <c r="U289" s="6" t="n"/>
     </row>
     <row r="290">
       <c r="A290" s="5" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" s="6" t="inlineStr">
         <is>
-          <t>519752</t>
+          <t>519738</t>
         </is>
       </c>
       <c r="C290" s="6" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D290" s="7" t="n">
-        <v>42697</v>
+        <v>43861</v>
       </c>
       <c r="E290" s="6" t="n">
         <v>404001</v>
@@ -17922,7 +17914,7 @@
         </is>
       </c>
       <c r="G290" s="7" t="n">
-        <v>42691</v>
+        <v>43845</v>
       </c>
       <c r="H290" s="6" t="n">
         <v>405002</v>
@@ -17933,48 +17925,46 @@
         </is>
       </c>
       <c r="J290" s="6" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="K290" s="6" t="n"/>
       <c r="L290" s="7" t="n">
-        <v>42699</v>
-      </c>
-      <c r="M290" s="7" t="n">
-        <v>42699</v>
-      </c>
+        <v>43865</v>
+      </c>
+      <c r="M290" s="6" t="n"/>
       <c r="N290" s="6" t="n"/>
       <c r="O290" s="7" t="n">
-        <v>42703</v>
+        <v>43867</v>
       </c>
       <c r="P290" s="7" t="n">
-        <v>42697</v>
+        <v>43861</v>
       </c>
       <c r="Q290" s="6" t="n"/>
       <c r="R290" s="7" t="n">
-        <v>42699</v>
+        <v>43865</v>
       </c>
       <c r="S290" s="7" t="n">
-        <v>42703</v>
+        <v>43867</v>
       </c>
       <c r="T290" s="6" t="n"/>
       <c r="U290" s="6" t="n"/>
     </row>
     <row r="291">
       <c r="A291" s="5" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291" s="6" t="inlineStr">
         <is>
-          <t>519755</t>
+          <t>519752</t>
         </is>
       </c>
       <c r="C291" s="6" t="inlineStr">
         <is>
-          <t>交银多策略回报灵活配置混合A</t>
+          <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D291" s="7" t="n">
-        <v>43727</v>
+        <v>42697</v>
       </c>
       <c r="E291" s="6" t="n">
         <v>404001</v>
@@ -17985,7 +17975,7 @@
         </is>
       </c>
       <c r="G291" s="7" t="n">
-        <v>43717</v>
+        <v>42691</v>
       </c>
       <c r="H291" s="6" t="n">
         <v>405002</v>
@@ -17996,46 +17986,48 @@
         </is>
       </c>
       <c r="J291" s="6" t="n">
-        <v>0.046</v>
+        <v>0.02</v>
       </c>
       <c r="K291" s="6" t="n"/>
       <c r="L291" s="7" t="n">
-        <v>43731</v>
-      </c>
-      <c r="M291" s="6" t="n"/>
+        <v>42699</v>
+      </c>
+      <c r="M291" s="7" t="n">
+        <v>42699</v>
+      </c>
       <c r="N291" s="6" t="n"/>
       <c r="O291" s="7" t="n">
-        <v>43733</v>
+        <v>42703</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>43727</v>
+        <v>42697</v>
       </c>
       <c r="Q291" s="6" t="n"/>
       <c r="R291" s="7" t="n">
-        <v>43731</v>
+        <v>42699</v>
       </c>
       <c r="S291" s="7" t="n">
-        <v>43733</v>
+        <v>42703</v>
       </c>
       <c r="T291" s="6" t="n"/>
       <c r="U291" s="6" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="5" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B292" s="6" t="inlineStr">
         <is>
-          <t>519776</t>
+          <t>519755</t>
         </is>
       </c>
       <c r="C292" s="6" t="inlineStr">
         <is>
-          <t>交银裕盈纯债债券A</t>
+          <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>43455</v>
+        <v>43727</v>
       </c>
       <c r="E292" s="6" t="n">
         <v>404001</v>
@@ -18046,7 +18038,7 @@
         </is>
       </c>
       <c r="G292" s="7" t="n">
-        <v>43446</v>
+        <v>43717</v>
       </c>
       <c r="H292" s="6" t="n">
         <v>405002</v>
@@ -18057,46 +18049,46 @@
         </is>
       </c>
       <c r="J292" s="6" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="K292" s="6" t="n"/>
       <c r="L292" s="7" t="n">
-        <v>43459</v>
+        <v>43731</v>
       </c>
       <c r="M292" s="6" t="n"/>
       <c r="N292" s="6" t="n"/>
       <c r="O292" s="7" t="n">
-        <v>43461</v>
+        <v>43733</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>43455</v>
+        <v>43727</v>
       </c>
       <c r="Q292" s="6" t="n"/>
       <c r="R292" s="7" t="n">
-        <v>43459</v>
+        <v>43731</v>
       </c>
       <c r="S292" s="7" t="n">
-        <v>43461</v>
+        <v>43733</v>
       </c>
       <c r="T292" s="6" t="n"/>
       <c r="U292" s="6" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="5" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B293" s="6" t="inlineStr">
         <is>
-          <t>519977</t>
+          <t>519755</t>
         </is>
       </c>
       <c r="C293" s="6" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>41535</v>
+        <v>44095</v>
       </c>
       <c r="E293" s="6" t="n">
         <v>404001</v>
@@ -18107,7 +18099,7 @@
         </is>
       </c>
       <c r="G293" s="7" t="n">
-        <v>41534</v>
+        <v>44084</v>
       </c>
       <c r="H293" s="6" t="n">
         <v>405002</v>
@@ -18118,48 +18110,46 @@
         </is>
       </c>
       <c r="J293" s="6" t="n">
-        <v>0.163</v>
+        <v>0.049</v>
       </c>
       <c r="K293" s="6" t="n"/>
       <c r="L293" s="7" t="n">
-        <v>41540</v>
-      </c>
-      <c r="M293" s="7" t="n">
-        <v>41540</v>
-      </c>
+        <v>44097</v>
+      </c>
+      <c r="M293" s="6" t="n"/>
       <c r="N293" s="6" t="n"/>
       <c r="O293" s="7" t="n">
-        <v>41542</v>
+        <v>44099</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>41535</v>
+        <v>44095</v>
       </c>
       <c r="Q293" s="6" t="n"/>
       <c r="R293" s="7" t="n">
-        <v>41540</v>
+        <v>44097</v>
       </c>
       <c r="S293" s="7" t="n">
-        <v>41542</v>
+        <v>44099</v>
       </c>
       <c r="T293" s="6" t="n"/>
       <c r="U293" s="6" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="5" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B294" s="6" t="inlineStr">
         <is>
-          <t>519977</t>
+          <t>519776</t>
         </is>
       </c>
       <c r="C294" s="6" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>交银裕盈纯债债券A</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>42026</v>
+        <v>43455</v>
       </c>
       <c r="E294" s="6" t="n">
         <v>404001</v>
@@ -18170,7 +18160,7 @@
         </is>
       </c>
       <c r="G294" s="7" t="n">
-        <v>42011</v>
+        <v>43446</v>
       </c>
       <c r="H294" s="6" t="n">
         <v>405002</v>
@@ -18181,35 +18171,33 @@
         </is>
       </c>
       <c r="J294" s="6" t="n">
-        <v>0.397</v>
+        <v>0.05</v>
       </c>
       <c r="K294" s="6" t="n"/>
       <c r="L294" s="7" t="n">
-        <v>42027</v>
-      </c>
-      <c r="M294" s="7" t="n">
-        <v>42027</v>
-      </c>
+        <v>43459</v>
+      </c>
+      <c r="M294" s="6" t="n"/>
       <c r="N294" s="6" t="n"/>
       <c r="O294" s="7" t="n">
-        <v>42031</v>
+        <v>43461</v>
       </c>
       <c r="P294" s="7" t="n">
-        <v>42026</v>
+        <v>43455</v>
       </c>
       <c r="Q294" s="6" t="n"/>
       <c r="R294" s="7" t="n">
-        <v>42027</v>
+        <v>43459</v>
       </c>
       <c r="S294" s="7" t="n">
-        <v>42031</v>
+        <v>43461</v>
       </c>
       <c r="T294" s="6" t="n"/>
       <c r="U294" s="6" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="5" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B295" s="6" t="inlineStr">
         <is>
@@ -18222,7 +18210,7 @@
         </is>
       </c>
       <c r="D295" s="7" t="n">
-        <v>42210</v>
+        <v>41535</v>
       </c>
       <c r="E295" s="6" t="n">
         <v>404001</v>
@@ -18233,7 +18221,7 @@
         </is>
       </c>
       <c r="G295" s="7" t="n">
-        <v>42205</v>
+        <v>41534</v>
       </c>
       <c r="H295" s="6" t="n">
         <v>405002</v>
@@ -18244,31 +18232,157 @@
         </is>
       </c>
       <c r="J295" s="6" t="n">
-        <v>0.4</v>
+        <v>0.163</v>
       </c>
       <c r="K295" s="6" t="n"/>
       <c r="L295" s="7" t="n">
-        <v>42212</v>
+        <v>41540</v>
       </c>
       <c r="M295" s="7" t="n">
-        <v>42212</v>
+        <v>41540</v>
       </c>
       <c r="N295" s="6" t="n"/>
       <c r="O295" s="7" t="n">
-        <v>42214</v>
+        <v>41542</v>
       </c>
       <c r="P295" s="7" t="n">
-        <v>42210</v>
+        <v>41535</v>
       </c>
       <c r="Q295" s="6" t="n"/>
       <c r="R295" s="7" t="n">
-        <v>42212</v>
+        <v>41540</v>
       </c>
       <c r="S295" s="7" t="n">
-        <v>42214</v>
+        <v>41542</v>
       </c>
       <c r="T295" s="6" t="n"/>
       <c r="U295" s="6" t="n"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="5" t="n">
+        <v>293</v>
+      </c>
+      <c r="B296" s="6" t="inlineStr">
+        <is>
+          <t>519977</t>
+        </is>
+      </c>
+      <c r="C296" s="6" t="inlineStr">
+        <is>
+          <t>长信可转债债券A</t>
+        </is>
+      </c>
+      <c r="D296" s="7" t="n">
+        <v>42026</v>
+      </c>
+      <c r="E296" s="6" t="n">
+        <v>404001</v>
+      </c>
+      <c r="F296" s="6" t="inlineStr">
+        <is>
+          <t>基金分红</t>
+        </is>
+      </c>
+      <c r="G296" s="7" t="n">
+        <v>42011</v>
+      </c>
+      <c r="H296" s="6" t="n">
+        <v>405002</v>
+      </c>
+      <c r="I296" s="6" t="inlineStr">
+        <is>
+          <t>实施方案</t>
+        </is>
+      </c>
+      <c r="J296" s="6" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="K296" s="6" t="n"/>
+      <c r="L296" s="7" t="n">
+        <v>42027</v>
+      </c>
+      <c r="M296" s="7" t="n">
+        <v>42027</v>
+      </c>
+      <c r="N296" s="6" t="n"/>
+      <c r="O296" s="7" t="n">
+        <v>42031</v>
+      </c>
+      <c r="P296" s="7" t="n">
+        <v>42026</v>
+      </c>
+      <c r="Q296" s="6" t="n"/>
+      <c r="R296" s="7" t="n">
+        <v>42027</v>
+      </c>
+      <c r="S296" s="7" t="n">
+        <v>42031</v>
+      </c>
+      <c r="T296" s="6" t="n"/>
+      <c r="U296" s="6" t="n"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="5" t="n">
+        <v>294</v>
+      </c>
+      <c r="B297" s="6" t="inlineStr">
+        <is>
+          <t>519977</t>
+        </is>
+      </c>
+      <c r="C297" s="6" t="inlineStr">
+        <is>
+          <t>长信可转债债券A</t>
+        </is>
+      </c>
+      <c r="D297" s="7" t="n">
+        <v>42210</v>
+      </c>
+      <c r="E297" s="6" t="n">
+        <v>404001</v>
+      </c>
+      <c r="F297" s="6" t="inlineStr">
+        <is>
+          <t>基金分红</t>
+        </is>
+      </c>
+      <c r="G297" s="7" t="n">
+        <v>42205</v>
+      </c>
+      <c r="H297" s="6" t="n">
+        <v>405002</v>
+      </c>
+      <c r="I297" s="6" t="inlineStr">
+        <is>
+          <t>实施方案</t>
+        </is>
+      </c>
+      <c r="J297" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K297" s="6" t="n"/>
+      <c r="L297" s="7" t="n">
+        <v>42212</v>
+      </c>
+      <c r="M297" s="7" t="n">
+        <v>42212</v>
+      </c>
+      <c r="N297" s="6" t="n"/>
+      <c r="O297" s="7" t="n">
+        <v>42214</v>
+      </c>
+      <c r="P297" s="7" t="n">
+        <v>42210</v>
+      </c>
+      <c r="Q297" s="6" t="n"/>
+      <c r="R297" s="7" t="n">
+        <v>42212</v>
+      </c>
+      <c r="S297" s="7" t="n">
+        <v>42214</v>
+      </c>
+      <c r="T297" s="6" t="n"/>
+      <c r="U297" s="6" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="B:U"/>
